--- a/BackTest/2020-01-21 BackTest LINK.xlsx
+++ b/BackTest/2020-01-21 BackTest LINK.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1342,10 +1342,14 @@
         <v>-20011.8981277932</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>2908</v>
+      </c>
+      <c r="J29" t="n">
+        <v>2908</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
@@ -1375,11 +1379,19 @@
         <v>-19997.3364277932</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>2911</v>
+      </c>
+      <c r="J30" t="n">
+        <v>2908</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1408,11 +1420,19 @@
         <v>-19817.6837277932</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>2916</v>
+      </c>
+      <c r="J31" t="n">
+        <v>2908</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1441,10 +1461,14 @@
         <v>-19766.7114277932</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>2925</v>
+      </c>
+      <c r="J32" t="n">
+        <v>2925</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
@@ -1474,11 +1498,19 @@
         <v>-20314.2288277932</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>2936</v>
+      </c>
+      <c r="J33" t="n">
+        <v>2925</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1507,11 +1539,19 @@
         <v>-20314.4288277932</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>2935</v>
+      </c>
+      <c r="J34" t="n">
+        <v>2925</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1540,10 +1580,14 @@
         <v>-20312.4288277932</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>2929</v>
+      </c>
+      <c r="J35" t="n">
+        <v>2929</v>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
@@ -1576,8 +1620,14 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>2929</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1609,8 +1659,14 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>2929</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1672,10 +1728,14 @@
         <v>-20184.1288277932</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>2928</v>
+      </c>
+      <c r="J39" t="n">
+        <v>2928</v>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
@@ -1705,11 +1765,19 @@
         <v>-20184.1288277932</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>2939</v>
+      </c>
+      <c r="J40" t="n">
+        <v>2928</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1738,11 +1806,19 @@
         <v>-20184.1288277932</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>2939</v>
+      </c>
+      <c r="J41" t="n">
+        <v>2928</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1771,10 +1847,14 @@
         <v>-20184.1288277932</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>2939</v>
+      </c>
+      <c r="J42" t="n">
+        <v>2939</v>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
@@ -1804,11 +1884,19 @@
         <v>-20184.1288277932</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>2939</v>
+      </c>
+      <c r="J43" t="n">
+        <v>2939</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1840,8 +1928,14 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>2939</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1873,8 +1967,14 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>2939</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1906,8 +2006,14 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>2939</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1936,11 +2042,19 @@
         <v>-22874.2113277932</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>2929</v>
+      </c>
+      <c r="J47" t="n">
+        <v>2939</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -1969,11 +2083,19 @@
         <v>-23776.1708277932</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>2920</v>
+      </c>
+      <c r="J48" t="n">
+        <v>2939</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2002,11 +2124,19 @@
         <v>-23740.46672779321</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I49" t="n">
+        <v>2919</v>
+      </c>
+      <c r="J49" t="n">
+        <v>2939</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2035,11 +2165,19 @@
         <v>-23740.46672779321</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>2927</v>
+      </c>
+      <c r="J50" t="n">
+        <v>2939</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2068,11 +2206,19 @@
         <v>-23831.89572779321</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>2927</v>
+      </c>
+      <c r="J51" t="n">
+        <v>2939</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2101,11 +2247,19 @@
         <v>-23831.89572779321</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>2919</v>
+      </c>
+      <c r="J52" t="n">
+        <v>2939</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2134,11 +2288,19 @@
         <v>-23831.89572779321</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>2919</v>
+      </c>
+      <c r="J53" t="n">
+        <v>2939</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2167,11 +2329,19 @@
         <v>-23832.07572779321</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>2919</v>
+      </c>
+      <c r="J54" t="n">
+        <v>2939</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2200,11 +2370,19 @@
         <v>-23832.07572779321</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>2916</v>
+      </c>
+      <c r="J55" t="n">
+        <v>2939</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2233,11 +2411,19 @@
         <v>-23565.73662779321</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I56" t="n">
+        <v>2916</v>
+      </c>
+      <c r="J56" t="n">
+        <v>2939</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2266,11 +2452,19 @@
         <v>-23565.73662779321</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>2919</v>
+      </c>
+      <c r="J57" t="n">
+        <v>2939</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2299,11 +2493,19 @@
         <v>-23370.32902779321</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I58" t="n">
+        <v>2919</v>
+      </c>
+      <c r="J58" t="n">
+        <v>2939</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2332,11 +2534,19 @@
         <v>-25474.6518277932</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>2931</v>
+      </c>
+      <c r="J59" t="n">
+        <v>2939</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2365,11 +2575,19 @@
         <v>-24720.67158929235</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>2919</v>
+      </c>
+      <c r="J60" t="n">
+        <v>2939</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2401,8 +2619,14 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>2939</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2431,11 +2655,19 @@
         <v>-25155.74952000908</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I62" t="n">
+        <v>2925</v>
+      </c>
+      <c r="J62" t="n">
+        <v>2939</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2464,11 +2696,19 @@
         <v>-25152.74952000908</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I63" t="n">
+        <v>2930</v>
+      </c>
+      <c r="J63" t="n">
+        <v>2939</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2500,8 +2740,14 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>2939</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2533,8 +2779,14 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>2939</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2566,8 +2818,14 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>2939</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2599,8 +2857,14 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>2939</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2632,8 +2896,14 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>2939</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2665,8 +2935,14 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>2939</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2698,8 +2974,14 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>2939</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2731,8 +3013,14 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>2939</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2764,8 +3052,14 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>2939</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2797,8 +3091,14 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>2939</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2827,15 +3127,17 @@
         <v>-26900.76382000908</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
-      </c>
-      <c r="I74" t="n">
-        <v>2938</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="n">
-        <v>2938</v>
-      </c>
-      <c r="K74" t="inlineStr"/>
+        <v>2939</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2868,11 +3170,11 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="n">
-        <v>2938</v>
+        <v>2939</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L75" t="n">
@@ -2903,17 +3205,15 @@
         <v>-26677.20482000908</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
-      </c>
-      <c r="I76" t="n">
-        <v>2956</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="n">
-        <v>2938</v>
+        <v>2939</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L76" t="n">
@@ -2947,8 +3247,14 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>2939</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -2980,8 +3286,14 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>2939</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3013,8 +3325,14 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>2939</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3043,15 +3361,15 @@
         <v>-21449.78382000908</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
-      </c>
-      <c r="I80" t="n">
-        <v>2964</v>
-      </c>
-      <c r="J80" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>2939</v>
+      </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L80" t="n">
@@ -3082,12 +3400,12 @@
         <v>-21449.78382000908</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
-      </c>
-      <c r="I81" t="n">
-        <v>2967</v>
-      </c>
-      <c r="J81" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>2939</v>
+      </c>
       <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3124,7 +3442,9 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>2939</v>
+      </c>
       <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3161,7 +3481,9 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>2939</v>
+      </c>
       <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3195,12 +3517,12 @@
         <v>-20516.52212000908</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
-      </c>
-      <c r="I84" t="n">
-        <v>2957</v>
-      </c>
-      <c r="J84" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>2939</v>
+      </c>
       <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3234,12 +3556,12 @@
         <v>-20516.52212000908</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
-      </c>
-      <c r="I85" t="n">
-        <v>2965</v>
-      </c>
-      <c r="J85" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>2939</v>
+      </c>
       <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3273,12 +3595,12 @@
         <v>-20516.52212000908</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
-      </c>
-      <c r="I86" t="n">
-        <v>2965</v>
-      </c>
-      <c r="J86" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>2939</v>
+      </c>
       <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3312,12 +3634,12 @@
         <v>-20672.51232000908</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
-      </c>
-      <c r="I87" t="n">
-        <v>2965</v>
-      </c>
-      <c r="J87" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>2939</v>
+      </c>
       <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3351,12 +3673,12 @@
         <v>-21164.89322000908</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
-      </c>
-      <c r="I88" t="n">
-        <v>2958</v>
-      </c>
-      <c r="J88" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>2939</v>
+      </c>
       <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3393,7 +3715,9 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>2939</v>
+      </c>
       <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3427,12 +3751,12 @@
         <v>-21104.51582000908</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
-      </c>
-      <c r="I90" t="n">
-        <v>2957</v>
-      </c>
-      <c r="J90" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>2939</v>
+      </c>
       <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3466,12 +3790,12 @@
         <v>-20993.49092000908</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
-      </c>
-      <c r="I91" t="n">
-        <v>2963</v>
-      </c>
-      <c r="J91" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>2939</v>
+      </c>
       <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3505,12 +3829,12 @@
         <v>-20993.49092000908</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
-      </c>
-      <c r="I92" t="n">
-        <v>2975</v>
-      </c>
-      <c r="J92" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>2939</v>
+      </c>
       <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3547,7 +3871,9 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>2939</v>
+      </c>
       <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3584,7 +3910,9 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>2939</v>
+      </c>
       <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3621,7 +3949,9 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>2939</v>
+      </c>
       <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3658,7 +3988,9 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>2939</v>
+      </c>
       <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3695,7 +4027,9 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>2939</v>
+      </c>
       <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3732,7 +4066,9 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>2939</v>
+      </c>
       <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3769,7 +4105,9 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>2939</v>
+      </c>
       <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3806,7 +4144,9 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>2939</v>
+      </c>
       <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3843,7 +4183,9 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>2939</v>
+      </c>
       <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3880,7 +4222,9 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>2939</v>
+      </c>
       <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3917,7 +4261,9 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>2939</v>
+      </c>
       <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3954,7 +4300,9 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>2939</v>
+      </c>
       <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3991,7 +4339,9 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>2939</v>
+      </c>
       <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4028,7 +4378,9 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>2939</v>
+      </c>
       <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4065,7 +4417,9 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>2939</v>
+      </c>
       <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4099,10 +4453,14 @@
         <v>-18794.71372000908</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I108" t="n">
+        <v>2922</v>
+      </c>
+      <c r="J108" t="n">
+        <v>2939</v>
+      </c>
       <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4136,10 +4494,14 @@
         <v>-18792.02622000908</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I109" t="n">
+        <v>2922</v>
+      </c>
+      <c r="J109" t="n">
+        <v>2939</v>
+      </c>
       <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4173,10 +4535,14 @@
         <v>-18461.38232000908</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I110" t="n">
+        <v>2943</v>
+      </c>
+      <c r="J110" t="n">
+        <v>2939</v>
+      </c>
       <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4210,10 +4576,14 @@
         <v>-17632.27402000908</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I111" t="n">
+        <v>2954</v>
+      </c>
+      <c r="J111" t="n">
+        <v>2939</v>
+      </c>
       <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4250,7 +4620,9 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>2939</v>
+      </c>
       <c r="K112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4287,7 +4659,9 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>2939</v>
+      </c>
       <c r="K113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4324,7 +4698,9 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>2939</v>
+      </c>
       <c r="K114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4361,7 +4737,9 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>2939</v>
+      </c>
       <c r="K115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4398,7 +4776,9 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>2939</v>
+      </c>
       <c r="K116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4435,7 +4815,9 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>2939</v>
+      </c>
       <c r="K117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4472,7 +4854,9 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>2939</v>
+      </c>
       <c r="K118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4509,7 +4893,9 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>2939</v>
+      </c>
       <c r="K119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4546,7 +4932,9 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>2939</v>
+      </c>
       <c r="K120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4583,7 +4971,9 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>2939</v>
+      </c>
       <c r="K121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4620,7 +5010,9 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>2939</v>
+      </c>
       <c r="K122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4657,7 +5049,9 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>2939</v>
+      </c>
       <c r="K123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4694,7 +5088,9 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>2939</v>
+      </c>
       <c r="K124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4731,7 +5127,9 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>2939</v>
+      </c>
       <c r="K125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4768,7 +5166,9 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>2939</v>
+      </c>
       <c r="K126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4805,7 +5205,9 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>2939</v>
+      </c>
       <c r="K127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4842,7 +5244,9 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>2939</v>
+      </c>
       <c r="K128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4879,7 +5283,9 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>2939</v>
+      </c>
       <c r="K129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4916,7 +5322,9 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>2939</v>
+      </c>
       <c r="K130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4953,7 +5361,9 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>2939</v>
+      </c>
       <c r="K131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4990,7 +5400,9 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>2939</v>
+      </c>
       <c r="K132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5027,7 +5439,9 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>2939</v>
+      </c>
       <c r="K133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5064,7 +5478,9 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>2939</v>
+      </c>
       <c r="K134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5101,7 +5517,9 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>2939</v>
+      </c>
       <c r="K135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5138,7 +5556,9 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>2939</v>
+      </c>
       <c r="K136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5175,7 +5595,9 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>2939</v>
+      </c>
       <c r="K137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5212,7 +5634,9 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>2939</v>
+      </c>
       <c r="K138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5249,7 +5673,9 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>2939</v>
+      </c>
       <c r="K139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5286,7 +5712,9 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>2939</v>
+      </c>
       <c r="K140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5323,7 +5751,9 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>2939</v>
+      </c>
       <c r="K141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5360,7 +5790,9 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>2939</v>
+      </c>
       <c r="K142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5397,7 +5829,9 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>2939</v>
+      </c>
       <c r="K143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5434,7 +5868,9 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>2939</v>
+      </c>
       <c r="K144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5471,7 +5907,9 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>2939</v>
+      </c>
       <c r="K145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5508,7 +5946,9 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>2939</v>
+      </c>
       <c r="K146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5545,7 +5985,9 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>2939</v>
+      </c>
       <c r="K147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5582,7 +6024,9 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>2939</v>
+      </c>
       <c r="K148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5619,7 +6063,9 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>2939</v>
+      </c>
       <c r="K149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5656,7 +6102,9 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>2939</v>
+      </c>
       <c r="K150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5693,7 +6141,9 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>2939</v>
+      </c>
       <c r="K151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5730,7 +6180,9 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>2939</v>
+      </c>
       <c r="K152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5767,7 +6219,9 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>2939</v>
+      </c>
       <c r="K153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5804,7 +6258,9 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>2939</v>
+      </c>
       <c r="K154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5841,7 +6297,9 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>2939</v>
+      </c>
       <c r="K155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5878,7 +6336,9 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>2939</v>
+      </c>
       <c r="K156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5915,7 +6375,9 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>2939</v>
+      </c>
       <c r="K157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5952,7 +6414,9 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>2939</v>
+      </c>
       <c r="K158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5989,7 +6453,9 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>2939</v>
+      </c>
       <c r="K159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6026,7 +6492,9 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>2939</v>
+      </c>
       <c r="K160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6063,7 +6531,9 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>2939</v>
+      </c>
       <c r="K161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6100,7 +6570,9 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>2939</v>
+      </c>
       <c r="K162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6137,7 +6609,9 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>2939</v>
+      </c>
       <c r="K163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6174,7 +6648,9 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>2939</v>
+      </c>
       <c r="K164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6211,7 +6687,9 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>2939</v>
+      </c>
       <c r="K165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6248,7 +6726,9 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>2939</v>
+      </c>
       <c r="K166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6285,7 +6765,9 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>2939</v>
+      </c>
       <c r="K167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6322,7 +6804,9 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>2939</v>
+      </c>
       <c r="K168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6359,7 +6843,9 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>2939</v>
+      </c>
       <c r="K169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6396,7 +6882,9 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>2939</v>
+      </c>
       <c r="K170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6433,7 +6921,9 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>2939</v>
+      </c>
       <c r="K171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6470,7 +6960,9 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>2939</v>
+      </c>
       <c r="K172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6507,7 +6999,9 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>2939</v>
+      </c>
       <c r="K173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6544,7 +7038,9 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>2939</v>
+      </c>
       <c r="K174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6581,7 +7077,9 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>2939</v>
+      </c>
       <c r="K175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6618,7 +7116,9 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>2939</v>
+      </c>
       <c r="K176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6655,7 +7155,9 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>2939</v>
+      </c>
       <c r="K177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6692,7 +7194,9 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>2939</v>
+      </c>
       <c r="K178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6729,7 +7233,9 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>2939</v>
+      </c>
       <c r="K179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6766,7 +7272,9 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>2939</v>
+      </c>
       <c r="K180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6803,7 +7311,9 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>2939</v>
+      </c>
       <c r="K181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6840,7 +7350,9 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>2939</v>
+      </c>
       <c r="K182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6877,7 +7389,9 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>2939</v>
+      </c>
       <c r="K183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6914,7 +7428,9 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>2939</v>
+      </c>
       <c r="K184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6951,7 +7467,9 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>2939</v>
+      </c>
       <c r="K185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6988,7 +7506,9 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>2939</v>
+      </c>
       <c r="K186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7025,7 +7545,9 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>2939</v>
+      </c>
       <c r="K187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7062,7 +7584,9 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>2939</v>
+      </c>
       <c r="K188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7099,7 +7623,9 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>2939</v>
+      </c>
       <c r="K189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7136,7 +7662,9 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>2939</v>
+      </c>
       <c r="K190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7173,7 +7701,9 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>2939</v>
+      </c>
       <c r="K191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7210,7 +7740,9 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>2939</v>
+      </c>
       <c r="K192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7247,7 +7779,9 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>2939</v>
+      </c>
       <c r="K193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7284,7 +7818,9 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>2939</v>
+      </c>
       <c r="K194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7321,7 +7857,9 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>2939</v>
+      </c>
       <c r="K195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7358,7 +7896,9 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>2939</v>
+      </c>
       <c r="K196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7395,7 +7935,9 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>2939</v>
+      </c>
       <c r="K197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7432,7 +7974,9 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>2939</v>
+      </c>
       <c r="K198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7469,7 +8013,9 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>2939</v>
+      </c>
       <c r="K199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7506,7 +8052,9 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>2939</v>
+      </c>
       <c r="K200" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7543,7 +8091,9 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>2939</v>
+      </c>
       <c r="K201" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7580,7 +8130,9 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>2939</v>
+      </c>
       <c r="K202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7617,7 +8169,9 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>2939</v>
+      </c>
       <c r="K203" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7654,7 +8208,9 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>2939</v>
+      </c>
       <c r="K204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7691,7 +8247,9 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>2939</v>
+      </c>
       <c r="K205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7728,7 +8286,9 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>2939</v>
+      </c>
       <c r="K206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7765,7 +8325,9 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>2939</v>
+      </c>
       <c r="K207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7802,7 +8364,9 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>2939</v>
+      </c>
       <c r="K208" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7839,7 +8403,9 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>2939</v>
+      </c>
       <c r="K209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7876,7 +8442,9 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>2939</v>
+      </c>
       <c r="K210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7913,7 +8481,9 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>2939</v>
+      </c>
       <c r="K211" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7950,7 +8520,9 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>2939</v>
+      </c>
       <c r="K212" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7987,7 +8559,9 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>2939</v>
+      </c>
       <c r="K213" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8024,7 +8598,9 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>2939</v>
+      </c>
       <c r="K214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8061,7 +8637,9 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>2939</v>
+      </c>
       <c r="K215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8098,7 +8676,9 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>2939</v>
+      </c>
       <c r="K216" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8135,7 +8715,9 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>2939</v>
+      </c>
       <c r="K217" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8172,7 +8754,9 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>2939</v>
+      </c>
       <c r="K218" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8209,7 +8793,9 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>2939</v>
+      </c>
       <c r="K219" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8246,7 +8832,9 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>2939</v>
+      </c>
       <c r="K220" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8283,7 +8871,9 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>2939</v>
+      </c>
       <c r="K221" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8320,7 +8910,9 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>2939</v>
+      </c>
       <c r="K222" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8357,7 +8949,9 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>2939</v>
+      </c>
       <c r="K223" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8394,7 +8988,9 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>2939</v>
+      </c>
       <c r="K224" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8431,7 +9027,9 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>2939</v>
+      </c>
       <c r="K225" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8468,7 +9066,9 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>2939</v>
+      </c>
       <c r="K226" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8505,7 +9105,9 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>2939</v>
+      </c>
       <c r="K227" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8542,7 +9144,9 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>2939</v>
+      </c>
       <c r="K228" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8579,7 +9183,9 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>2939</v>
+      </c>
       <c r="K229" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8616,7 +9222,9 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>2939</v>
+      </c>
       <c r="K230" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8653,7 +9261,9 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>2939</v>
+      </c>
       <c r="K231" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8690,7 +9300,9 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>2939</v>
+      </c>
       <c r="K232" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8727,7 +9339,9 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>2939</v>
+      </c>
       <c r="K233" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8764,7 +9378,9 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>2939</v>
+      </c>
       <c r="K234" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8801,7 +9417,9 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>2939</v>
+      </c>
       <c r="K235" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8838,7 +9456,9 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>2939</v>
+      </c>
       <c r="K236" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8875,7 +9495,9 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>2939</v>
+      </c>
       <c r="K237" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8912,7 +9534,9 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>2939</v>
+      </c>
       <c r="K238" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8949,7 +9573,9 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>2939</v>
+      </c>
       <c r="K239" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8986,7 +9612,9 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>2939</v>
+      </c>
       <c r="K240" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9023,7 +9651,9 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>2939</v>
+      </c>
       <c r="K241" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9060,7 +9690,9 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>2939</v>
+      </c>
       <c r="K242" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9097,7 +9729,9 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>2939</v>
+      </c>
       <c r="K243" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9134,7 +9768,9 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>2939</v>
+      </c>
       <c r="K244" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9171,7 +9807,9 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>2939</v>
+      </c>
       <c r="K245" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9208,7 +9846,9 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>2939</v>
+      </c>
       <c r="K246" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9245,7 +9885,9 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>2939</v>
+      </c>
       <c r="K247" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9282,7 +9924,9 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>2939</v>
+      </c>
       <c r="K248" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9319,7 +9963,9 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>2939</v>
+      </c>
       <c r="K249" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9356,7 +10002,9 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>2939</v>
+      </c>
       <c r="K250" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9393,7 +10041,9 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>2939</v>
+      </c>
       <c r="K251" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9430,7 +10080,9 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>2939</v>
+      </c>
       <c r="K252" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9467,7 +10119,9 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>2939</v>
+      </c>
       <c r="K253" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9504,7 +10158,9 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>2939</v>
+      </c>
       <c r="K254" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9541,7 +10197,9 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>2939</v>
+      </c>
       <c r="K255" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9578,7 +10236,9 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>2939</v>
+      </c>
       <c r="K256" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9615,7 +10275,9 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>2939</v>
+      </c>
       <c r="K257" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9652,7 +10314,9 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>2939</v>
+      </c>
       <c r="K258" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9689,7 +10353,9 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>2939</v>
+      </c>
       <c r="K259" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9726,7 +10392,9 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>2939</v>
+      </c>
       <c r="K260" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9763,7 +10431,9 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>2939</v>
+      </c>
       <c r="K261" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9800,7 +10470,9 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>2939</v>
+      </c>
       <c r="K262" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9837,7 +10509,9 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>2939</v>
+      </c>
       <c r="K263" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9874,7 +10548,9 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>2939</v>
+      </c>
       <c r="K264" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9911,7 +10587,9 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>2939</v>
+      </c>
       <c r="K265" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9948,7 +10626,9 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>2939</v>
+      </c>
       <c r="K266" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9985,7 +10665,9 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>2939</v>
+      </c>
       <c r="K267" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10022,7 +10704,9 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>2939</v>
+      </c>
       <c r="K268" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10059,7 +10743,9 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>2939</v>
+      </c>
       <c r="K269" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10096,7 +10782,9 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>2939</v>
+      </c>
       <c r="K270" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10133,7 +10821,9 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>2939</v>
+      </c>
       <c r="K271" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10170,7 +10860,9 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>2939</v>
+      </c>
       <c r="K272" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10207,7 +10899,9 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>2939</v>
+      </c>
       <c r="K273" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10244,7 +10938,9 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>2939</v>
+      </c>
       <c r="K274" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10281,7 +10977,9 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>2939</v>
+      </c>
       <c r="K275" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10318,7 +11016,9 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>2939</v>
+      </c>
       <c r="K276" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10355,7 +11055,9 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>2939</v>
+      </c>
       <c r="K277" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10392,7 +11094,9 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>2939</v>
+      </c>
       <c r="K278" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10429,7 +11133,9 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>2939</v>
+      </c>
       <c r="K279" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10466,7 +11172,9 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>2939</v>
+      </c>
       <c r="K280" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10503,7 +11211,9 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>2939</v>
+      </c>
       <c r="K281" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10540,7 +11250,9 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>2939</v>
+      </c>
       <c r="K282" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10577,7 +11289,9 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>2939</v>
+      </c>
       <c r="K283" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10614,7 +11328,9 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>2939</v>
+      </c>
       <c r="K284" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10651,7 +11367,9 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>2939</v>
+      </c>
       <c r="K285" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10688,7 +11406,9 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>2939</v>
+      </c>
       <c r="K286" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10725,7 +11445,9 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>2939</v>
+      </c>
       <c r="K287" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10762,7 +11484,9 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>2939</v>
+      </c>
       <c r="K288" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10799,7 +11523,9 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>2939</v>
+      </c>
       <c r="K289" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10836,7 +11562,9 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>2939</v>
+      </c>
       <c r="K290" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10873,7 +11601,9 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="inlineStr"/>
+      <c r="J291" t="n">
+        <v>2939</v>
+      </c>
       <c r="K291" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10910,7 +11640,9 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
+      <c r="J292" t="n">
+        <v>2939</v>
+      </c>
       <c r="K292" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10947,7 +11679,9 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="inlineStr"/>
+      <c r="J293" t="n">
+        <v>2939</v>
+      </c>
       <c r="K293" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10984,7 +11718,9 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="inlineStr"/>
+      <c r="J294" t="n">
+        <v>2939</v>
+      </c>
       <c r="K294" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11021,7 +11757,9 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="inlineStr"/>
+      <c r="J295" t="n">
+        <v>2939</v>
+      </c>
       <c r="K295" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11058,7 +11796,9 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="inlineStr"/>
+      <c r="J296" t="n">
+        <v>2939</v>
+      </c>
       <c r="K296" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11095,7 +11835,9 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="inlineStr"/>
+      <c r="J297" t="n">
+        <v>2939</v>
+      </c>
       <c r="K297" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11132,7 +11874,9 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="inlineStr"/>
+      <c r="J298" t="n">
+        <v>2939</v>
+      </c>
       <c r="K298" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11169,7 +11913,9 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="inlineStr"/>
+      <c r="J299" t="n">
+        <v>2939</v>
+      </c>
       <c r="K299" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11206,7 +11952,9 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>2939</v>
+      </c>
       <c r="K300" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11243,7 +11991,9 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="inlineStr"/>
+      <c r="J301" t="n">
+        <v>2939</v>
+      </c>
       <c r="K301" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11280,7 +12030,9 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="inlineStr"/>
+      <c r="J302" t="n">
+        <v>2939</v>
+      </c>
       <c r="K302" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11317,7 +12069,9 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="inlineStr"/>
+      <c r="J303" t="n">
+        <v>2939</v>
+      </c>
       <c r="K303" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11354,7 +12108,9 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="inlineStr"/>
+      <c r="J304" t="n">
+        <v>2939</v>
+      </c>
       <c r="K304" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11391,7 +12147,9 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="inlineStr"/>
+      <c r="J305" t="n">
+        <v>2939</v>
+      </c>
       <c r="K305" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11428,7 +12186,9 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="inlineStr"/>
+      <c r="J306" t="n">
+        <v>2939</v>
+      </c>
       <c r="K306" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11462,10 +12222,12 @@
         <v>4001347.118591936</v>
       </c>
       <c r="H307" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="inlineStr"/>
+      <c r="J307" t="n">
+        <v>2939</v>
+      </c>
       <c r="K307" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11502,7 +12264,9 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="inlineStr"/>
+      <c r="J308" t="n">
+        <v>2939</v>
+      </c>
       <c r="K308" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11539,7 +12303,9 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="inlineStr"/>
+      <c r="J309" t="n">
+        <v>2939</v>
+      </c>
       <c r="K309" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11576,7 +12342,9 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="inlineStr"/>
+      <c r="J310" t="n">
+        <v>2939</v>
+      </c>
       <c r="K310" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11613,7 +12381,9 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="inlineStr"/>
+      <c r="J311" t="n">
+        <v>2939</v>
+      </c>
       <c r="K311" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11647,10 +12417,12 @@
         <v>3999155.664391936</v>
       </c>
       <c r="H312" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="inlineStr"/>
+      <c r="J312" t="n">
+        <v>2939</v>
+      </c>
       <c r="K312" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11687,7 +12459,9 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="inlineStr"/>
+      <c r="J313" t="n">
+        <v>2939</v>
+      </c>
       <c r="K313" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11724,7 +12498,9 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="inlineStr"/>
+      <c r="J314" t="n">
+        <v>2939</v>
+      </c>
       <c r="K314" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11761,7 +12537,9 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="inlineStr"/>
+      <c r="J315" t="n">
+        <v>2939</v>
+      </c>
       <c r="K315" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11798,7 +12576,9 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="inlineStr"/>
+      <c r="J316" t="n">
+        <v>2939</v>
+      </c>
       <c r="K316" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11835,7 +12615,9 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="inlineStr"/>
+      <c r="J317" t="n">
+        <v>2939</v>
+      </c>
       <c r="K317" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11872,7 +12654,9 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="inlineStr"/>
+      <c r="J318" t="n">
+        <v>2939</v>
+      </c>
       <c r="K318" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11909,7 +12693,9 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="inlineStr"/>
+      <c r="J319" t="n">
+        <v>2939</v>
+      </c>
       <c r="K319" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11946,7 +12732,9 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="inlineStr"/>
+      <c r="J320" t="n">
+        <v>2939</v>
+      </c>
       <c r="K320" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11983,7 +12771,9 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="inlineStr"/>
+      <c r="J321" t="n">
+        <v>2939</v>
+      </c>
       <c r="K321" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12020,7 +12810,9 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="inlineStr"/>
+      <c r="J322" t="n">
+        <v>2939</v>
+      </c>
       <c r="K322" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12057,7 +12849,9 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="inlineStr"/>
+      <c r="J323" t="n">
+        <v>2939</v>
+      </c>
       <c r="K323" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12094,7 +12888,9 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="inlineStr"/>
+      <c r="J324" t="n">
+        <v>2939</v>
+      </c>
       <c r="K324" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12131,7 +12927,9 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="inlineStr"/>
+      <c r="J325" t="n">
+        <v>2939</v>
+      </c>
       <c r="K325" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12168,7 +12966,9 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="inlineStr"/>
+      <c r="J326" t="n">
+        <v>2939</v>
+      </c>
       <c r="K326" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12205,7 +13005,9 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="inlineStr"/>
+      <c r="J327" t="n">
+        <v>2939</v>
+      </c>
       <c r="K327" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12242,7 +13044,9 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="inlineStr"/>
+      <c r="J328" t="n">
+        <v>2939</v>
+      </c>
       <c r="K328" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12279,7 +13083,9 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="inlineStr"/>
+      <c r="J329" t="n">
+        <v>2939</v>
+      </c>
       <c r="K329" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12316,7 +13122,9 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="inlineStr"/>
+      <c r="J330" t="n">
+        <v>2939</v>
+      </c>
       <c r="K330" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12353,7 +13161,9 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="inlineStr"/>
+      <c r="J331" t="n">
+        <v>2939</v>
+      </c>
       <c r="K331" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12390,7 +13200,9 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="inlineStr"/>
+      <c r="J332" t="n">
+        <v>2939</v>
+      </c>
       <c r="K332" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12427,7 +13239,9 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="inlineStr"/>
+      <c r="J333" t="n">
+        <v>2939</v>
+      </c>
       <c r="K333" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12464,7 +13278,9 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="inlineStr"/>
+      <c r="J334" t="n">
+        <v>2939</v>
+      </c>
       <c r="K334" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12501,7 +13317,9 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="inlineStr"/>
+      <c r="J335" t="n">
+        <v>2939</v>
+      </c>
       <c r="K335" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12538,7 +13356,9 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="inlineStr"/>
+      <c r="J336" t="n">
+        <v>2939</v>
+      </c>
       <c r="K336" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12575,7 +13395,9 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="inlineStr"/>
+      <c r="J337" t="n">
+        <v>2939</v>
+      </c>
       <c r="K337" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12612,7 +13434,9 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="inlineStr"/>
+      <c r="J338" t="n">
+        <v>2939</v>
+      </c>
       <c r="K338" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12649,7 +13473,9 @@
         <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="inlineStr"/>
+      <c r="J339" t="n">
+        <v>2939</v>
+      </c>
       <c r="K339" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12686,7 +13512,9 @@
         <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="inlineStr"/>
+      <c r="J340" t="n">
+        <v>2939</v>
+      </c>
       <c r="K340" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12723,7 +13551,9 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="inlineStr"/>
+      <c r="J341" t="n">
+        <v>2939</v>
+      </c>
       <c r="K341" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12760,7 +13590,9 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="inlineStr"/>
+      <c r="J342" t="n">
+        <v>2939</v>
+      </c>
       <c r="K342" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12797,7 +13629,9 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="inlineStr"/>
+      <c r="J343" t="n">
+        <v>2939</v>
+      </c>
       <c r="K343" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12834,7 +13668,9 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="inlineStr"/>
+      <c r="J344" t="n">
+        <v>2939</v>
+      </c>
       <c r="K344" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12871,7 +13707,9 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="inlineStr"/>
+      <c r="J345" t="n">
+        <v>2939</v>
+      </c>
       <c r="K345" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12908,7 +13746,9 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="inlineStr"/>
+      <c r="J346" t="n">
+        <v>2939</v>
+      </c>
       <c r="K346" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12945,7 +13785,9 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="inlineStr"/>
+      <c r="J347" t="n">
+        <v>2939</v>
+      </c>
       <c r="K347" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12982,7 +13824,9 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="inlineStr"/>
+      <c r="J348" t="n">
+        <v>2939</v>
+      </c>
       <c r="K348" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13019,7 +13863,9 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="inlineStr"/>
+      <c r="J349" t="n">
+        <v>2939</v>
+      </c>
       <c r="K349" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13056,7 +13902,9 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="inlineStr"/>
+      <c r="J350" t="n">
+        <v>2939</v>
+      </c>
       <c r="K350" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13093,7 +13941,9 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="inlineStr"/>
+      <c r="J351" t="n">
+        <v>2939</v>
+      </c>
       <c r="K351" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13130,7 +13980,9 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="inlineStr"/>
+      <c r="J352" t="n">
+        <v>2939</v>
+      </c>
       <c r="K352" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13167,7 +14019,9 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="inlineStr"/>
+      <c r="J353" t="n">
+        <v>2939</v>
+      </c>
       <c r="K353" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13204,7 +14058,9 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="inlineStr"/>
+      <c r="J354" t="n">
+        <v>2939</v>
+      </c>
       <c r="K354" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13241,7 +14097,9 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="inlineStr"/>
+      <c r="J355" t="n">
+        <v>2939</v>
+      </c>
       <c r="K355" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13278,7 +14136,9 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="inlineStr"/>
+      <c r="J356" t="n">
+        <v>2939</v>
+      </c>
       <c r="K356" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13315,7 +14175,9 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="inlineStr"/>
+      <c r="J357" t="n">
+        <v>2939</v>
+      </c>
       <c r="K357" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13352,7 +14214,9 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="inlineStr"/>
+      <c r="J358" t="n">
+        <v>2939</v>
+      </c>
       <c r="K358" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13389,7 +14253,9 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="inlineStr"/>
+      <c r="J359" t="n">
+        <v>2939</v>
+      </c>
       <c r="K359" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13426,7 +14292,9 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="inlineStr"/>
+      <c r="J360" t="n">
+        <v>2939</v>
+      </c>
       <c r="K360" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13463,7 +14331,9 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="inlineStr"/>
+      <c r="J361" t="n">
+        <v>2939</v>
+      </c>
       <c r="K361" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13500,7 +14370,9 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="inlineStr"/>
+      <c r="J362" t="n">
+        <v>2939</v>
+      </c>
       <c r="K362" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13537,7 +14409,9 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="inlineStr"/>
+      <c r="J363" t="n">
+        <v>2939</v>
+      </c>
       <c r="K363" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13574,7 +14448,9 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="inlineStr"/>
+      <c r="J364" t="n">
+        <v>2939</v>
+      </c>
       <c r="K364" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13611,7 +14487,9 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="inlineStr"/>
+      <c r="J365" t="n">
+        <v>2939</v>
+      </c>
       <c r="K365" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13645,16 +14523,20 @@
         <v>4002696.781175368</v>
       </c>
       <c r="H366" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="inlineStr"/>
+      <c r="J366" t="n">
+        <v>2939</v>
+      </c>
       <c r="K366" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L366" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L366" t="n">
+        <v>1</v>
+      </c>
       <c r="M366" t="inlineStr"/>
     </row>
     <row r="367">
@@ -13683,8 +14565,14 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="J367" t="n">
+        <v>2939</v>
+      </c>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -13716,8 +14604,14 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="J368" t="n">
+        <v>2939</v>
+      </c>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -13749,8 +14643,14 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="J369" t="n">
+        <v>2939</v>
+      </c>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -13782,8 +14682,14 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="J370" t="n">
+        <v>2939</v>
+      </c>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -13815,8 +14721,14 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="J371" t="n">
+        <v>2939</v>
+      </c>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -13848,8 +14760,14 @@
         <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="J372" t="n">
+        <v>2939</v>
+      </c>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -13881,8 +14799,14 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="J373" t="n">
+        <v>2939</v>
+      </c>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -13914,8 +14838,14 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="J374" t="n">
+        <v>2939</v>
+      </c>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -13947,8 +14877,14 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="J375" t="n">
+        <v>2939</v>
+      </c>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -13980,8 +14916,14 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="J376" t="n">
+        <v>2939</v>
+      </c>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -14013,8 +14955,14 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="J377" t="n">
+        <v>2939</v>
+      </c>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -14046,8 +14994,14 @@
         <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="J378" t="n">
+        <v>2939</v>
+      </c>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -14079,8 +15033,14 @@
         <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="J379" t="n">
+        <v>2939</v>
+      </c>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -14112,8 +15072,14 @@
         <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="J380" t="n">
+        <v>2939</v>
+      </c>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -14145,8 +15111,14 @@
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="J381" t="n">
+        <v>2939</v>
+      </c>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -14178,8 +15150,14 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="J382" t="n">
+        <v>2939</v>
+      </c>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -14208,11 +15186,17 @@
         <v>4006014.783175369</v>
       </c>
       <c r="H383" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="J383" t="n">
+        <v>2939</v>
+      </c>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -14241,11 +15225,17 @@
         <v>4006014.783175369</v>
       </c>
       <c r="H384" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="J384" t="n">
+        <v>2939</v>
+      </c>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -14274,11 +15264,17 @@
         <v>4006014.783175369</v>
       </c>
       <c r="H385" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="J385" t="n">
+        <v>2939</v>
+      </c>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -14307,11 +15303,17 @@
         <v>4006014.783175369</v>
       </c>
       <c r="H386" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="J386" t="n">
+        <v>2939</v>
+      </c>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -14340,11 +15342,17 @@
         <v>4006303.598475369</v>
       </c>
       <c r="H387" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="J387" t="n">
+        <v>2939</v>
+      </c>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -14373,11 +15381,17 @@
         <v>4006322.800675369</v>
       </c>
       <c r="H388" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="J388" t="n">
+        <v>2939</v>
+      </c>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -14406,11 +15420,17 @@
         <v>4006281.110075369</v>
       </c>
       <c r="H389" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="J389" t="n">
+        <v>2939</v>
+      </c>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -14442,8 +15462,14 @@
         <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="J390" t="n">
+        <v>2939</v>
+      </c>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -14475,8 +15501,14 @@
         <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="J391" t="n">
+        <v>2939</v>
+      </c>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -14505,11 +15537,17 @@
         <v>4006708.182283976</v>
       </c>
       <c r="H392" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+      <c r="J392" t="n">
+        <v>2939</v>
+      </c>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -14541,8 +15579,14 @@
         <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="J393" t="n">
+        <v>2939</v>
+      </c>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -14574,8 +15618,14 @@
         <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="J394" t="n">
+        <v>2939</v>
+      </c>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -14607,8 +15657,14 @@
         <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
+      <c r="J395" t="n">
+        <v>2939</v>
+      </c>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -14640,8 +15696,14 @@
         <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
+      <c r="J396" t="n">
+        <v>2939</v>
+      </c>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -14673,8 +15735,14 @@
         <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
+      <c r="J397" t="n">
+        <v>2939</v>
+      </c>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -14706,8 +15774,14 @@
         <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
+      <c r="J398" t="n">
+        <v>2939</v>
+      </c>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -14736,13 +15810,19 @@
         <v>4006116.304485045</v>
       </c>
       <c r="H399" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
+      <c r="J399" t="n">
+        <v>2939</v>
+      </c>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L399" t="n">
-        <v>1</v>
+        <v>1.012352841102416</v>
       </c>
       <c r="M399" t="inlineStr"/>
     </row>
@@ -14769,7 +15849,7 @@
         <v>4005842.087685045</v>
       </c>
       <c r="H400" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -14802,7 +15882,7 @@
         <v>4005823.863585045</v>
       </c>
       <c r="H401" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -14835,7 +15915,7 @@
         <v>4005823.863585045</v>
       </c>
       <c r="H402" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -14868,7 +15948,7 @@
         <v>4005747.510285045</v>
       </c>
       <c r="H403" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -14901,7 +15981,7 @@
         <v>4005731.196185045</v>
       </c>
       <c r="H404" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -14934,7 +16014,7 @@
         <v>4002349.975785045</v>
       </c>
       <c r="H405" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -14967,7 +16047,7 @@
         <v>4002359.975785045</v>
       </c>
       <c r="H406" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -15000,7 +16080,7 @@
         <v>4002359.975785045</v>
       </c>
       <c r="H407" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -15033,7 +16113,7 @@
         <v>4002359.975785045</v>
       </c>
       <c r="H408" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -15066,7 +16146,7 @@
         <v>4002359.975785045</v>
       </c>
       <c r="H409" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -15099,7 +16179,7 @@
         <v>4002359.975785045</v>
       </c>
       <c r="H410" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -15132,7 +16212,7 @@
         <v>4002359.975785045</v>
       </c>
       <c r="H411" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -15165,7 +16245,7 @@
         <v>4002370.225785045</v>
       </c>
       <c r="H412" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -15198,7 +16278,7 @@
         <v>4002370.225785045</v>
       </c>
       <c r="H413" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -15231,7 +16311,7 @@
         <v>4002370.725785045</v>
       </c>
       <c r="H414" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -15264,7 +16344,7 @@
         <v>4002328.285285045</v>
       </c>
       <c r="H415" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -15330,7 +16410,7 @@
         <v>4002091.480985045</v>
       </c>
       <c r="H417" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -15363,7 +16443,7 @@
         <v>4002091.730985045</v>
       </c>
       <c r="H418" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -15396,7 +16476,7 @@
         <v>4002069.994385045</v>
       </c>
       <c r="H419" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -15495,7 +16575,7 @@
         <v>4002047.535185045</v>
       </c>
       <c r="H422" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -15528,7 +16608,7 @@
         <v>4001991.666085045</v>
       </c>
       <c r="H423" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -15627,7 +16707,7 @@
         <v>4001685.157085045</v>
       </c>
       <c r="H426" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -15660,7 +16740,7 @@
         <v>4001686.157085045</v>
       </c>
       <c r="H427" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -15759,7 +16839,7 @@
         <v>4001685.157085045</v>
       </c>
       <c r="H430" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -15792,7 +16872,7 @@
         <v>4001685.157085045</v>
       </c>
       <c r="H431" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -15825,7 +16905,7 @@
         <v>4001687.654748597</v>
       </c>
       <c r="H432" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -15858,7 +16938,7 @@
         <v>4001685.654748597</v>
       </c>
       <c r="H433" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -15891,7 +16971,7 @@
         <v>4001687.904748597</v>
       </c>
       <c r="H434" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -15924,7 +17004,7 @@
         <v>4001546.962748597</v>
       </c>
       <c r="H435" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -15957,7 +17037,7 @@
         <v>4003601.350248597</v>
       </c>
       <c r="H436" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -15990,7 +17070,7 @@
         <v>4003601.350248597</v>
       </c>
       <c r="H437" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -16023,7 +17103,7 @@
         <v>4003601.350248597</v>
       </c>
       <c r="H438" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -16056,7 +17136,7 @@
         <v>4001793.797448597</v>
       </c>
       <c r="H439" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -16089,7 +17169,7 @@
         <v>4002415.843248597</v>
       </c>
       <c r="H440" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -16122,7 +17202,7 @@
         <v>4002415.843248597</v>
       </c>
       <c r="H441" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -16155,7 +17235,7 @@
         <v>4002089.468248597</v>
       </c>
       <c r="H442" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -16188,7 +17268,7 @@
         <v>4002184.986848597</v>
       </c>
       <c r="H443" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -16419,7 +17499,7 @@
         <v>4002424.818148597</v>
       </c>
       <c r="H450" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -16452,7 +17532,7 @@
         <v>4002424.818148597</v>
       </c>
       <c r="H451" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -16485,7 +17565,7 @@
         <v>4002424.818148597</v>
       </c>
       <c r="H452" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -16518,7 +17598,7 @@
         <v>4002424.818148597</v>
       </c>
       <c r="H453" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -16551,7 +17631,7 @@
         <v>4002424.818148597</v>
       </c>
       <c r="H454" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -16584,7 +17664,7 @@
         <v>4002424.818148597</v>
       </c>
       <c r="H455" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -16617,7 +17697,7 @@
         <v>4002424.818148597</v>
       </c>
       <c r="H456" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -16650,7 +17730,7 @@
         <v>4002424.818148597</v>
       </c>
       <c r="H457" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
@@ -16683,7 +17763,7 @@
         <v>4002424.818148597</v>
       </c>
       <c r="H458" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -16716,7 +17796,7 @@
         <v>4002424.818148597</v>
       </c>
       <c r="H459" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
@@ -16749,7 +17829,7 @@
         <v>4002424.818148597</v>
       </c>
       <c r="H460" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -16782,7 +17862,7 @@
         <v>4002524.469148597</v>
       </c>
       <c r="H461" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -17310,7 +18390,7 @@
         <v>4001956.329395508</v>
       </c>
       <c r="H477" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
@@ -17343,7 +18423,7 @@
         <v>4001956.329395508</v>
       </c>
       <c r="H478" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
@@ -17376,7 +18456,7 @@
         <v>4001956.329395508</v>
       </c>
       <c r="H479" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
@@ -17409,7 +18489,7 @@
         <v>4001956.329395508</v>
       </c>
       <c r="H480" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -17442,7 +18522,7 @@
         <v>4002572.931295509</v>
       </c>
       <c r="H481" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
@@ -17475,7 +18555,7 @@
         <v>4002573.931295509</v>
       </c>
       <c r="H482" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
@@ -17508,7 +18588,7 @@
         <v>4002573.931295509</v>
       </c>
       <c r="H483" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
@@ -17541,7 +18621,7 @@
         <v>4002536.849795509</v>
       </c>
       <c r="H484" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
@@ -17574,7 +18654,7 @@
         <v>4001749.849795509</v>
       </c>
       <c r="H485" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
@@ -17607,7 +18687,7 @@
         <v>4001759.026695509</v>
       </c>
       <c r="H486" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
@@ -17640,7 +18720,7 @@
         <v>4000675.626295508</v>
       </c>
       <c r="H487" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
@@ -17673,7 +18753,7 @@
         <v>3997720.667195508</v>
       </c>
       <c r="H488" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
@@ -17706,7 +18786,7 @@
         <v>3999198.448995508</v>
       </c>
       <c r="H489" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
@@ -17739,7 +18819,7 @@
         <v>3999068.746695508</v>
       </c>
       <c r="H490" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -17772,7 +18852,7 @@
         <v>3999068.746695508</v>
       </c>
       <c r="H491" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -17805,7 +18885,7 @@
         <v>4000444.951395508</v>
       </c>
       <c r="H492" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
@@ -17871,7 +18951,7 @@
         <v>4000277.484695508</v>
       </c>
       <c r="H494" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -17904,7 +18984,7 @@
         <v>3998737.916195508</v>
       </c>
       <c r="H495" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -17937,7 +19017,7 @@
         <v>3998581.013595508</v>
       </c>
       <c r="H496" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -17970,7 +19050,7 @@
         <v>3998622.899495508</v>
       </c>
       <c r="H497" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -18003,7 +19083,7 @@
         <v>3995998.035455834</v>
       </c>
       <c r="H498" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -18036,7 +19116,7 @@
         <v>3995489.145255834</v>
       </c>
       <c r="H499" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -18069,7 +19149,7 @@
         <v>3995501.185355834</v>
       </c>
       <c r="H500" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
@@ -18102,7 +19182,7 @@
         <v>3995502.185355834</v>
       </c>
       <c r="H501" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
@@ -18135,7 +19215,7 @@
         <v>3995216.834355834</v>
       </c>
       <c r="H502" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
@@ -18168,7 +19248,7 @@
         <v>3995264.926984217</v>
       </c>
       <c r="H503" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
@@ -18201,7 +19281,7 @@
         <v>3995265.926984217</v>
       </c>
       <c r="H504" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
@@ -18234,7 +19314,7 @@
         <v>3995188.355284217</v>
       </c>
       <c r="H505" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
@@ -18267,7 +19347,7 @@
         <v>3995191.355284217</v>
       </c>
       <c r="H506" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -18300,7 +19380,7 @@
         <v>3995191.355284217</v>
       </c>
       <c r="H507" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -18333,7 +19413,7 @@
         <v>3996191.355284217</v>
       </c>
       <c r="H508" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -18366,7 +19446,7 @@
         <v>3996731.279984217</v>
       </c>
       <c r="H509" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
@@ -18993,14 +20073,10 @@
         <v>3993330.228476773</v>
       </c>
       <c r="H528" t="n">
-        <v>2</v>
-      </c>
-      <c r="I528" t="n">
-        <v>2917</v>
-      </c>
-      <c r="J528" t="n">
-        <v>2917</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I528" t="inlineStr"/>
+      <c r="J528" t="inlineStr"/>
       <c r="K528" t="inlineStr"/>
       <c r="L528" t="n">
         <v>1</v>
@@ -19030,19 +20106,11 @@
         <v>3993330.228476773</v>
       </c>
       <c r="H529" t="n">
-        <v>2</v>
-      </c>
-      <c r="I529" t="n">
-        <v>2916</v>
-      </c>
-      <c r="J529" t="n">
-        <v>2917</v>
-      </c>
-      <c r="K529" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I529" t="inlineStr"/>
+      <c r="J529" t="inlineStr"/>
+      <c r="K529" t="inlineStr"/>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -19071,19 +20139,11 @@
         <v>3993330.228476773</v>
       </c>
       <c r="H530" t="n">
-        <v>2</v>
-      </c>
-      <c r="I530" t="n">
-        <v>2916</v>
-      </c>
-      <c r="J530" t="n">
-        <v>2917</v>
-      </c>
-      <c r="K530" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I530" t="inlineStr"/>
+      <c r="J530" t="inlineStr"/>
+      <c r="K530" t="inlineStr"/>
       <c r="L530" t="n">
         <v>1</v>
       </c>
@@ -19112,19 +20172,11 @@
         <v>3994209.854976773</v>
       </c>
       <c r="H531" t="n">
-        <v>2</v>
-      </c>
-      <c r="I531" t="n">
-        <v>2916</v>
-      </c>
-      <c r="J531" t="n">
-        <v>2917</v>
-      </c>
-      <c r="K531" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I531" t="inlineStr"/>
+      <c r="J531" t="inlineStr"/>
+      <c r="K531" t="inlineStr"/>
       <c r="L531" t="n">
         <v>1</v>
       </c>
@@ -19153,19 +20205,11 @@
         <v>3995234.543976773</v>
       </c>
       <c r="H532" t="n">
-        <v>2</v>
-      </c>
-      <c r="I532" t="n">
-        <v>2917</v>
-      </c>
-      <c r="J532" t="n">
-        <v>2917</v>
-      </c>
-      <c r="K532" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I532" t="inlineStr"/>
+      <c r="J532" t="inlineStr"/>
+      <c r="K532" t="inlineStr"/>
       <c r="L532" t="n">
         <v>1</v>
       </c>
@@ -19194,19 +20238,11 @@
         <v>3995234.543976773</v>
       </c>
       <c r="H533" t="n">
-        <v>2</v>
-      </c>
-      <c r="I533" t="n">
-        <v>2936</v>
-      </c>
-      <c r="J533" t="n">
-        <v>2917</v>
-      </c>
-      <c r="K533" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I533" t="inlineStr"/>
+      <c r="J533" t="inlineStr"/>
+      <c r="K533" t="inlineStr"/>
       <c r="L533" t="n">
         <v>1</v>
       </c>
@@ -19235,19 +20271,11 @@
         <v>3995556.089676773</v>
       </c>
       <c r="H534" t="n">
-        <v>2</v>
-      </c>
-      <c r="I534" t="n">
-        <v>2936</v>
-      </c>
-      <c r="J534" t="n">
-        <v>2917</v>
-      </c>
-      <c r="K534" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I534" t="inlineStr"/>
+      <c r="J534" t="inlineStr"/>
+      <c r="K534" t="inlineStr"/>
       <c r="L534" t="n">
         <v>1</v>
       </c>
@@ -19276,19 +20304,11 @@
         <v>3995653.357276773</v>
       </c>
       <c r="H535" t="n">
-        <v>2</v>
-      </c>
-      <c r="I535" t="n">
-        <v>2940</v>
-      </c>
-      <c r="J535" t="n">
-        <v>2917</v>
-      </c>
-      <c r="K535" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I535" t="inlineStr"/>
+      <c r="J535" t="inlineStr"/>
+      <c r="K535" t="inlineStr"/>
       <c r="L535" t="n">
         <v>1</v>
       </c>
@@ -19317,19 +20337,11 @@
         <v>4041558.849376773</v>
       </c>
       <c r="H536" t="n">
-        <v>2</v>
-      </c>
-      <c r="I536" t="n">
-        <v>2953</v>
-      </c>
-      <c r="J536" t="n">
-        <v>2917</v>
-      </c>
-      <c r="K536" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I536" t="inlineStr"/>
+      <c r="J536" t="inlineStr"/>
+      <c r="K536" t="inlineStr"/>
       <c r="L536" t="n">
         <v>1</v>
       </c>
@@ -19361,14 +20373,8 @@
         <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
-      <c r="J537" t="n">
-        <v>2917</v>
-      </c>
-      <c r="K537" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J537" t="inlineStr"/>
+      <c r="K537" t="inlineStr"/>
       <c r="L537" t="n">
         <v>1</v>
       </c>
@@ -19400,14 +20406,8 @@
         <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
-      <c r="J538" t="n">
-        <v>2917</v>
-      </c>
-      <c r="K538" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J538" t="inlineStr"/>
+      <c r="K538" t="inlineStr"/>
       <c r="L538" t="n">
         <v>1</v>
       </c>
@@ -19439,14 +20439,8 @@
         <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
-      <c r="J539" t="n">
-        <v>2917</v>
-      </c>
-      <c r="K539" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J539" t="inlineStr"/>
+      <c r="K539" t="inlineStr"/>
       <c r="L539" t="n">
         <v>1</v>
       </c>
@@ -19478,14 +20472,8 @@
         <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
-      <c r="J540" t="n">
-        <v>2917</v>
-      </c>
-      <c r="K540" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J540" t="inlineStr"/>
+      <c r="K540" t="inlineStr"/>
       <c r="L540" t="n">
         <v>1</v>
       </c>
@@ -19517,14 +20505,8 @@
         <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
-      <c r="J541" t="n">
-        <v>2917</v>
-      </c>
-      <c r="K541" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J541" t="inlineStr"/>
+      <c r="K541" t="inlineStr"/>
       <c r="L541" t="n">
         <v>1</v>
       </c>
@@ -19556,14 +20538,8 @@
         <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
-      <c r="J542" t="n">
-        <v>2917</v>
-      </c>
-      <c r="K542" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J542" t="inlineStr"/>
+      <c r="K542" t="inlineStr"/>
       <c r="L542" t="n">
         <v>1</v>
       </c>
@@ -19595,14 +20571,8 @@
         <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
-      <c r="J543" t="n">
-        <v>2917</v>
-      </c>
-      <c r="K543" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J543" t="inlineStr"/>
+      <c r="K543" t="inlineStr"/>
       <c r="L543" t="n">
         <v>1</v>
       </c>
@@ -19634,14 +20604,8 @@
         <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
-      <c r="J544" t="n">
-        <v>2917</v>
-      </c>
-      <c r="K544" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J544" t="inlineStr"/>
+      <c r="K544" t="inlineStr"/>
       <c r="L544" t="n">
         <v>1</v>
       </c>
@@ -19673,14 +20637,8 @@
         <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
-      <c r="J545" t="n">
-        <v>2917</v>
-      </c>
-      <c r="K545" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J545" t="inlineStr"/>
+      <c r="K545" t="inlineStr"/>
       <c r="L545" t="n">
         <v>1</v>
       </c>
@@ -19712,14 +20670,8 @@
         <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
-      <c r="J546" t="n">
-        <v>2917</v>
-      </c>
-      <c r="K546" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J546" t="inlineStr"/>
+      <c r="K546" t="inlineStr"/>
       <c r="L546" t="n">
         <v>1</v>
       </c>
@@ -19751,14 +20703,8 @@
         <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
-      <c r="J547" t="n">
-        <v>2917</v>
-      </c>
-      <c r="K547" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J547" t="inlineStr"/>
+      <c r="K547" t="inlineStr"/>
       <c r="L547" t="n">
         <v>1</v>
       </c>
@@ -19790,14 +20736,8 @@
         <v>0</v>
       </c>
       <c r="I548" t="inlineStr"/>
-      <c r="J548" t="n">
-        <v>2917</v>
-      </c>
-      <c r="K548" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J548" t="inlineStr"/>
+      <c r="K548" t="inlineStr"/>
       <c r="L548" t="n">
         <v>1</v>
       </c>
@@ -19829,14 +20769,8 @@
         <v>0</v>
       </c>
       <c r="I549" t="inlineStr"/>
-      <c r="J549" t="n">
-        <v>2917</v>
-      </c>
-      <c r="K549" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J549" t="inlineStr"/>
+      <c r="K549" t="inlineStr"/>
       <c r="L549" t="n">
         <v>1</v>
       </c>
@@ -19868,14 +20802,8 @@
         <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
-      <c r="J550" t="n">
-        <v>2917</v>
-      </c>
-      <c r="K550" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J550" t="inlineStr"/>
+      <c r="K550" t="inlineStr"/>
       <c r="L550" t="n">
         <v>1</v>
       </c>
@@ -19907,14 +20835,8 @@
         <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
-      <c r="J551" t="n">
-        <v>2917</v>
-      </c>
-      <c r="K551" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J551" t="inlineStr"/>
+      <c r="K551" t="inlineStr"/>
       <c r="L551" t="n">
         <v>1</v>
       </c>
@@ -19946,14 +20868,8 @@
         <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
-      <c r="J552" t="n">
-        <v>2917</v>
-      </c>
-      <c r="K552" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J552" t="inlineStr"/>
+      <c r="K552" t="inlineStr"/>
       <c r="L552" t="n">
         <v>1</v>
       </c>
@@ -19985,14 +20901,8 @@
         <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
-      <c r="J553" t="n">
-        <v>2917</v>
-      </c>
-      <c r="K553" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J553" t="inlineStr"/>
+      <c r="K553" t="inlineStr"/>
       <c r="L553" t="n">
         <v>1</v>
       </c>
@@ -20024,14 +20934,8 @@
         <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
-      <c r="J554" t="n">
-        <v>2917</v>
-      </c>
-      <c r="K554" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J554" t="inlineStr"/>
+      <c r="K554" t="inlineStr"/>
       <c r="L554" t="n">
         <v>1</v>
       </c>
@@ -20063,14 +20967,8 @@
         <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
-      <c r="J555" t="n">
-        <v>2917</v>
-      </c>
-      <c r="K555" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J555" t="inlineStr"/>
+      <c r="K555" t="inlineStr"/>
       <c r="L555" t="n">
         <v>1</v>
       </c>
@@ -20102,14 +21000,8 @@
         <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
-      <c r="J556" t="n">
-        <v>2917</v>
-      </c>
-      <c r="K556" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J556" t="inlineStr"/>
+      <c r="K556" t="inlineStr"/>
       <c r="L556" t="n">
         <v>1</v>
       </c>
@@ -20141,14 +21033,8 @@
         <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
-      <c r="J557" t="n">
-        <v>2917</v>
-      </c>
-      <c r="K557" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J557" t="inlineStr"/>
+      <c r="K557" t="inlineStr"/>
       <c r="L557" t="n">
         <v>1</v>
       </c>
@@ -20180,14 +21066,8 @@
         <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
-      <c r="J558" t="n">
-        <v>2917</v>
-      </c>
-      <c r="K558" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J558" t="inlineStr"/>
+      <c r="K558" t="inlineStr"/>
       <c r="L558" t="n">
         <v>1</v>
       </c>
@@ -20219,14 +21099,8 @@
         <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
-      <c r="J559" t="n">
-        <v>2917</v>
-      </c>
-      <c r="K559" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J559" t="inlineStr"/>
+      <c r="K559" t="inlineStr"/>
       <c r="L559" t="n">
         <v>1</v>
       </c>
@@ -20258,14 +21132,8 @@
         <v>0</v>
       </c>
       <c r="I560" t="inlineStr"/>
-      <c r="J560" t="n">
-        <v>2917</v>
-      </c>
-      <c r="K560" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J560" t="inlineStr"/>
+      <c r="K560" t="inlineStr"/>
       <c r="L560" t="n">
         <v>1</v>
       </c>
@@ -20297,14 +21165,8 @@
         <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
-      <c r="J561" t="n">
-        <v>2917</v>
-      </c>
-      <c r="K561" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J561" t="inlineStr"/>
+      <c r="K561" t="inlineStr"/>
       <c r="L561" t="n">
         <v>1</v>
       </c>
@@ -20333,19 +21195,13 @@
         <v>4055797.774176773</v>
       </c>
       <c r="H562" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
-      <c r="J562" t="n">
-        <v>2917</v>
-      </c>
-      <c r="K562" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J562" t="inlineStr"/>
+      <c r="K562" t="inlineStr"/>
       <c r="L562" t="n">
-        <v>1.025510798765855</v>
+        <v>1</v>
       </c>
       <c r="M562" t="inlineStr"/>
     </row>
@@ -20372,7 +21228,7 @@
         <v>4055297.774176773</v>
       </c>
       <c r="H563" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
@@ -20405,7 +21261,7 @@
         <v>4055297.774176773</v>
       </c>
       <c r="H564" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
@@ -20438,7 +21294,7 @@
         <v>4054496.186876773</v>
       </c>
       <c r="H565" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
@@ -20515,6 +21371,6 @@
       <c r="M567" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-21 BackTest LINK.xlsx
+++ b/BackTest/2020-01-21 BackTest LINK.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1342,14 +1342,10 @@
         <v>-20011.8981277932</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>2908</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2908</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
@@ -1379,19 +1375,11 @@
         <v>-19997.3364277932</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>2911</v>
-      </c>
-      <c r="J30" t="n">
-        <v>2908</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1420,19 +1408,11 @@
         <v>-19817.6837277932</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>2916</v>
-      </c>
-      <c r="J31" t="n">
-        <v>2908</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1461,14 +1441,10 @@
         <v>-19766.7114277932</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>2925</v>
-      </c>
-      <c r="J32" t="n">
-        <v>2925</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
@@ -1498,19 +1474,11 @@
         <v>-20314.2288277932</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>2936</v>
-      </c>
-      <c r="J33" t="n">
-        <v>2925</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1539,19 +1507,11 @@
         <v>-20314.4288277932</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>2935</v>
-      </c>
-      <c r="J34" t="n">
-        <v>2925</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1580,14 +1540,10 @@
         <v>-20312.4288277932</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>2929</v>
-      </c>
-      <c r="J35" t="n">
-        <v>2929</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
@@ -1620,14 +1576,8 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>2929</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1659,14 +1609,8 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>2929</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1728,14 +1672,10 @@
         <v>-20184.1288277932</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>2928</v>
-      </c>
-      <c r="J39" t="n">
-        <v>2928</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
@@ -1765,19 +1705,11 @@
         <v>-20184.1288277932</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>2939</v>
-      </c>
-      <c r="J40" t="n">
-        <v>2928</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1806,19 +1738,11 @@
         <v>-20184.1288277932</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>2939</v>
-      </c>
-      <c r="J41" t="n">
-        <v>2928</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1847,14 +1771,10 @@
         <v>-20184.1288277932</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>2939</v>
-      </c>
-      <c r="J42" t="n">
-        <v>2939</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
@@ -1884,58 +1804,50 @@
         <v>-20184.1288277932</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>2940</v>
+      </c>
+      <c r="C44" t="n">
         <v>2939</v>
       </c>
-      <c r="J43" t="n">
+      <c r="D44" t="n">
+        <v>2940</v>
+      </c>
+      <c r="E44" t="n">
         <v>2939</v>
       </c>
-      <c r="K43" t="inlineStr">
+      <c r="F44" t="n">
+        <v>5.4267</v>
+      </c>
+      <c r="G44" t="n">
+        <v>-20184.1288277932</v>
+      </c>
+      <c r="H44" t="n">
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>2939</v>
+      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="n">
-        <v>2940</v>
-      </c>
-      <c r="C44" t="n">
-        <v>2939</v>
-      </c>
-      <c r="D44" t="n">
-        <v>2940</v>
-      </c>
-      <c r="E44" t="n">
-        <v>2939</v>
-      </c>
-      <c r="F44" t="n">
-        <v>5.4267</v>
-      </c>
-      <c r="G44" t="n">
-        <v>-20184.1288277932</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1967,9 +1879,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>2939</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2006,9 +1916,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>2939</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2042,14 +1950,10 @@
         <v>-22874.2113277932</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>2929</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2939</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2083,14 +1987,10 @@
         <v>-23776.1708277932</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>2920</v>
-      </c>
-      <c r="J48" t="n">
-        <v>2939</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2124,14 +2024,10 @@
         <v>-23740.46672779321</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
-      </c>
-      <c r="I49" t="n">
-        <v>2919</v>
-      </c>
-      <c r="J49" t="n">
-        <v>2939</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2165,14 +2061,10 @@
         <v>-23740.46672779321</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>2927</v>
-      </c>
-      <c r="J50" t="n">
-        <v>2939</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2206,14 +2098,10 @@
         <v>-23831.89572779321</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
-      </c>
-      <c r="I51" t="n">
-        <v>2927</v>
-      </c>
-      <c r="J51" t="n">
-        <v>2939</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2247,14 +2135,10 @@
         <v>-23831.89572779321</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>2919</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2939</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2288,14 +2172,10 @@
         <v>-23831.89572779321</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>2919</v>
-      </c>
-      <c r="J53" t="n">
-        <v>2939</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2329,14 +2209,10 @@
         <v>-23832.07572779321</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>2919</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2939</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2370,14 +2246,10 @@
         <v>-23832.07572779321</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>2916</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2939</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2416,9 +2288,7 @@
       <c r="I56" t="n">
         <v>2916</v>
       </c>
-      <c r="J56" t="n">
-        <v>2939</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2457,9 +2327,7 @@
       <c r="I57" t="n">
         <v>2919</v>
       </c>
-      <c r="J57" t="n">
-        <v>2939</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2498,9 +2366,7 @@
       <c r="I58" t="n">
         <v>2919</v>
       </c>
-      <c r="J58" t="n">
-        <v>2939</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2534,14 +2400,10 @@
         <v>-25474.6518277932</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>2931</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2939</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2580,9 +2442,7 @@
       <c r="I60" t="n">
         <v>2919</v>
       </c>
-      <c r="J60" t="n">
-        <v>2939</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2619,9 +2479,7 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>2939</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2655,14 +2513,10 @@
         <v>-25155.74952000908</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
-      </c>
-      <c r="I62" t="n">
-        <v>2925</v>
-      </c>
-      <c r="J62" t="n">
-        <v>2939</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2696,14 +2550,10 @@
         <v>-25152.74952000908</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>2930</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2939</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2740,9 +2590,7 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>2939</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2779,9 +2627,7 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>2939</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2818,9 +2664,7 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>2939</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2857,9 +2701,7 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>2939</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2896,9 +2738,7 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>2939</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2935,9 +2775,7 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>2939</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2974,9 +2812,7 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>2939</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3013,9 +2849,7 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>2939</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3052,9 +2886,7 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>2939</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3091,9 +2923,7 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>2939</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3130,9 +2960,7 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>2939</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3169,9 +2997,7 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>2939</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3208,9 +3034,7 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>2939</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3247,9 +3071,7 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>2939</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3286,9 +3108,7 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>2939</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3325,9 +3145,7 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>2939</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3361,20 +3179,16 @@
         <v>-21449.78382000908</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>2939</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
@@ -3403,14 +3217,8 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3442,14 +3250,8 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3481,14 +3283,8 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3520,14 +3316,8 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3559,14 +3349,8 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3598,14 +3382,8 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3637,14 +3415,8 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3676,14 +3448,8 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3715,14 +3481,8 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3754,14 +3514,8 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3793,14 +3547,8 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3832,14 +3580,8 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3871,14 +3613,8 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3910,14 +3646,8 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3949,14 +3679,8 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3988,14 +3712,8 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -4027,14 +3745,8 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4066,14 +3778,8 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4105,14 +3811,8 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4144,14 +3844,8 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4183,14 +3877,8 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4222,14 +3910,8 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4261,14 +3943,8 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4300,14 +3976,8 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4339,14 +4009,8 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4378,14 +4042,8 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4417,14 +4075,8 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4453,19 +4105,11 @@
         <v>-18794.71372000908</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
-      </c>
-      <c r="I108" t="n">
-        <v>2922</v>
-      </c>
-      <c r="J108" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4494,19 +4138,11 @@
         <v>-18792.02622000908</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
-      </c>
-      <c r="I109" t="n">
-        <v>2922</v>
-      </c>
-      <c r="J109" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4535,19 +4171,11 @@
         <v>-18461.38232000908</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
-      </c>
-      <c r="I110" t="n">
-        <v>2943</v>
-      </c>
-      <c r="J110" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4576,19 +4204,11 @@
         <v>-17632.27402000908</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
-      </c>
-      <c r="I111" t="n">
-        <v>2954</v>
-      </c>
-      <c r="J111" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4620,14 +4240,8 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4659,14 +4273,8 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4698,14 +4306,8 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4737,14 +4339,8 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4776,14 +4372,8 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4815,14 +4405,8 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4854,14 +4438,8 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4893,14 +4471,8 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4932,14 +4504,8 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4971,14 +4537,8 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -5010,14 +4570,8 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -5049,14 +4603,8 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -5088,14 +4636,8 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5127,14 +4669,8 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5166,14 +4702,8 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5205,14 +4735,8 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5244,14 +4768,8 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5283,14 +4801,8 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5322,14 +4834,8 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5361,14 +4867,8 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5400,14 +4900,8 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5439,14 +4933,8 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5478,14 +4966,8 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5517,14 +4999,8 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5556,14 +5032,8 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5595,14 +5065,8 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5634,14 +5098,8 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5673,14 +5131,8 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5712,14 +5164,8 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5751,14 +5197,8 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5790,14 +5230,8 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5829,14 +5263,8 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5868,14 +5296,8 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5907,14 +5329,8 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5946,14 +5362,8 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5985,14 +5395,8 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -6024,14 +5428,8 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -6063,14 +5461,8 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -6102,14 +5494,8 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -6141,14 +5527,8 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -6180,14 +5560,8 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6219,14 +5593,8 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6258,14 +5626,8 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6297,14 +5659,8 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6336,14 +5692,8 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6375,14 +5725,8 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6414,14 +5758,8 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6453,14 +5791,8 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6492,14 +5824,8 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6531,14 +5857,8 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6570,14 +5890,8 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6609,14 +5923,8 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6648,14 +5956,8 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6687,14 +5989,8 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6726,14 +6022,8 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6765,14 +6055,8 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6804,14 +6088,8 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6843,14 +6121,8 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6882,14 +6154,8 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6921,14 +6187,8 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6960,14 +6220,8 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6999,14 +6253,8 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -7038,14 +6286,8 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -7077,14 +6319,8 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -7116,14 +6352,8 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -7155,14 +6385,8 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -7194,14 +6418,8 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -7233,14 +6451,8 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -7272,14 +6484,8 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -7311,14 +6517,8 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7350,14 +6550,8 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7389,14 +6583,8 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7428,14 +6616,8 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7467,14 +6649,8 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7506,14 +6682,8 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7545,14 +6715,8 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7584,14 +6748,8 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7623,14 +6781,8 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7662,14 +6814,8 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7701,14 +6847,8 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7740,14 +6880,8 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7779,14 +6913,8 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7818,14 +6946,8 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7857,14 +6979,8 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7896,14 +7012,8 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7935,14 +7045,8 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7974,14 +7078,8 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -8013,14 +7111,8 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -8052,14 +7144,8 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -8091,14 +7177,8 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -8130,14 +7210,8 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -8169,14 +7243,8 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -8208,14 +7276,8 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -8247,14 +7309,8 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -8286,14 +7342,8 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -8325,14 +7375,8 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -8364,14 +7408,8 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -8403,14 +7441,8 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -8442,14 +7474,8 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8481,14 +7507,8 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8520,14 +7540,8 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8559,14 +7573,8 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8598,14 +7606,8 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8637,14 +7639,8 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8676,14 +7672,8 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8715,14 +7705,8 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8754,14 +7738,8 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8793,14 +7771,8 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8832,14 +7804,8 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8871,14 +7837,8 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8910,14 +7870,8 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8949,14 +7903,8 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8988,14 +7936,8 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -9027,14 +7969,8 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -9066,14 +8002,8 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -9105,14 +8035,8 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -9144,14 +8068,8 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -9183,14 +8101,8 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -9222,14 +8134,8 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -9261,14 +8167,8 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -9300,14 +8200,8 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -9339,14 +8233,8 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -9378,14 +8266,8 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -9417,14 +8299,8 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -9456,14 +8332,8 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -9495,14 +8365,8 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -9534,14 +8398,8 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9573,14 +8431,8 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9612,14 +8464,8 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9651,14 +8497,8 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9690,14 +8530,8 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9729,14 +8563,8 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9768,14 +8596,8 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9807,14 +8629,8 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9846,14 +8662,8 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9885,14 +8695,8 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9924,14 +8728,8 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9963,14 +8761,8 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -10002,14 +8794,8 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -10041,14 +8827,8 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -10080,14 +8860,8 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -10119,14 +8893,8 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -10158,14 +8926,8 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -10197,14 +8959,8 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -10236,14 +8992,8 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -10275,14 +9025,8 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -10314,14 +9058,8 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -10353,14 +9091,8 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -10392,14 +9124,8 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -10431,14 +9157,8 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -10470,14 +9190,8 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -10509,14 +9223,8 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -10548,14 +9256,8 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -10587,14 +9289,8 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -10626,14 +9322,8 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -10665,14 +9355,8 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -10704,14 +9388,8 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -10743,14 +9421,8 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -10782,14 +9454,8 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -10821,14 +9487,8 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J271" t="inlineStr"/>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -10860,14 +9520,8 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J272" t="inlineStr"/>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -10899,14 +9553,8 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J273" t="inlineStr"/>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -10938,14 +9586,8 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J274" t="inlineStr"/>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -10977,14 +9619,8 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J275" t="inlineStr"/>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -11016,14 +9652,8 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J276" t="inlineStr"/>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -11055,14 +9685,8 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J277" t="inlineStr"/>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -11094,14 +9718,8 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J278" t="inlineStr"/>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -11133,14 +9751,8 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J279" t="inlineStr"/>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -11172,14 +9784,8 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J280" t="inlineStr"/>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -11211,14 +9817,8 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J281" t="inlineStr"/>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -11250,14 +9850,8 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J282" t="inlineStr"/>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -11289,14 +9883,8 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J283" t="inlineStr"/>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -11328,14 +9916,8 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J284" t="inlineStr"/>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -11367,14 +9949,8 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J285" t="inlineStr"/>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -11406,14 +9982,8 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J286" t="inlineStr"/>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -11445,14 +10015,8 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J287" t="inlineStr"/>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -11484,14 +10048,8 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J288" t="inlineStr"/>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -11523,14 +10081,8 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J289" t="inlineStr"/>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -11562,14 +10114,8 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J290" t="inlineStr"/>
+      <c r="K290" t="inlineStr"/>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -11601,14 +10147,8 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J291" t="inlineStr"/>
+      <c r="K291" t="inlineStr"/>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -11640,14 +10180,8 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J292" t="inlineStr"/>
+      <c r="K292" t="inlineStr"/>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -11679,14 +10213,8 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J293" t="inlineStr"/>
+      <c r="K293" t="inlineStr"/>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -11718,14 +10246,8 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J294" t="inlineStr"/>
+      <c r="K294" t="inlineStr"/>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -11757,14 +10279,8 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J295" t="inlineStr"/>
+      <c r="K295" t="inlineStr"/>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -11796,14 +10312,8 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J296" t="inlineStr"/>
+      <c r="K296" t="inlineStr"/>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -11835,14 +10345,8 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J297" t="inlineStr"/>
+      <c r="K297" t="inlineStr"/>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -11874,14 +10378,8 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J298" t="inlineStr"/>
+      <c r="K298" t="inlineStr"/>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -11913,14 +10411,8 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J299" t="inlineStr"/>
+      <c r="K299" t="inlineStr"/>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -11952,14 +10444,8 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J300" t="inlineStr"/>
+      <c r="K300" t="inlineStr"/>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -11991,14 +10477,8 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J301" t="inlineStr"/>
+      <c r="K301" t="inlineStr"/>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -12030,14 +10510,8 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J302" t="inlineStr"/>
+      <c r="K302" t="inlineStr"/>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -12069,14 +10543,8 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J303" t="inlineStr"/>
+      <c r="K303" t="inlineStr"/>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -12108,14 +10576,8 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J304" t="inlineStr"/>
+      <c r="K304" t="inlineStr"/>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -12147,14 +10609,8 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J305" t="inlineStr"/>
+      <c r="K305" t="inlineStr"/>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -12186,14 +10642,8 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J306" t="inlineStr"/>
+      <c r="K306" t="inlineStr"/>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -12225,14 +10675,8 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J307" t="inlineStr"/>
+      <c r="K307" t="inlineStr"/>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -12264,14 +10708,8 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J308" t="inlineStr"/>
+      <c r="K308" t="inlineStr"/>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -12303,14 +10741,8 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J309" t="inlineStr"/>
+      <c r="K309" t="inlineStr"/>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -12342,14 +10774,8 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J310" t="inlineStr"/>
+      <c r="K310" t="inlineStr"/>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -12381,14 +10807,8 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J311" t="inlineStr"/>
+      <c r="K311" t="inlineStr"/>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -12420,14 +10840,8 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J312" t="inlineStr"/>
+      <c r="K312" t="inlineStr"/>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -12459,14 +10873,8 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J313" t="inlineStr"/>
+      <c r="K313" t="inlineStr"/>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -12498,14 +10906,8 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J314" t="inlineStr"/>
+      <c r="K314" t="inlineStr"/>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -12537,14 +10939,8 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J315" t="inlineStr"/>
+      <c r="K315" t="inlineStr"/>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -12576,14 +10972,8 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J316" t="inlineStr"/>
+      <c r="K316" t="inlineStr"/>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -12615,14 +11005,8 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J317" t="inlineStr"/>
+      <c r="K317" t="inlineStr"/>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -12654,14 +11038,8 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J318" t="inlineStr"/>
+      <c r="K318" t="inlineStr"/>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -12693,14 +11071,8 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J319" t="inlineStr"/>
+      <c r="K319" t="inlineStr"/>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -12732,14 +11104,8 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J320" t="inlineStr"/>
+      <c r="K320" t="inlineStr"/>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -12771,14 +11137,8 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J321" t="inlineStr"/>
+      <c r="K321" t="inlineStr"/>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -12810,14 +11170,8 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J322" t="inlineStr"/>
+      <c r="K322" t="inlineStr"/>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -12849,14 +11203,8 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J323" t="inlineStr"/>
+      <c r="K323" t="inlineStr"/>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -12888,14 +11236,8 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J324" t="inlineStr"/>
+      <c r="K324" t="inlineStr"/>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -12927,14 +11269,8 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J325" t="inlineStr"/>
+      <c r="K325" t="inlineStr"/>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -12966,14 +11302,8 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J326" t="inlineStr"/>
+      <c r="K326" t="inlineStr"/>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -13005,14 +11335,8 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J327" t="inlineStr"/>
+      <c r="K327" t="inlineStr"/>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -13044,14 +11368,8 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J328" t="inlineStr"/>
+      <c r="K328" t="inlineStr"/>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -13083,14 +11401,8 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J329" t="inlineStr"/>
+      <c r="K329" t="inlineStr"/>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -13122,14 +11434,8 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J330" t="inlineStr"/>
+      <c r="K330" t="inlineStr"/>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -13161,14 +11467,8 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J331" t="inlineStr"/>
+      <c r="K331" t="inlineStr"/>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -13200,14 +11500,8 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K332" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J332" t="inlineStr"/>
+      <c r="K332" t="inlineStr"/>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -13239,14 +11533,8 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K333" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J333" t="inlineStr"/>
+      <c r="K333" t="inlineStr"/>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -13278,14 +11566,8 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K334" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J334" t="inlineStr"/>
+      <c r="K334" t="inlineStr"/>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -13317,14 +11599,8 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K335" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J335" t="inlineStr"/>
+      <c r="K335" t="inlineStr"/>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -13356,14 +11632,8 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K336" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J336" t="inlineStr"/>
+      <c r="K336" t="inlineStr"/>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -13395,14 +11665,8 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K337" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J337" t="inlineStr"/>
+      <c r="K337" t="inlineStr"/>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -13434,14 +11698,8 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K338" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J338" t="inlineStr"/>
+      <c r="K338" t="inlineStr"/>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -13470,17 +11728,11 @@
         <v>3999932.96596758</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K339" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J339" t="inlineStr"/>
+      <c r="K339" t="inlineStr"/>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -13509,17 +11761,11 @@
         <v>3999932.96596758</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K340" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J340" t="inlineStr"/>
+      <c r="K340" t="inlineStr"/>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -13548,17 +11794,11 @@
         <v>3999884.55936758</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K341" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J341" t="inlineStr"/>
+      <c r="K341" t="inlineStr"/>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -13587,17 +11827,11 @@
         <v>4001216.32846758</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K342" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J342" t="inlineStr"/>
+      <c r="K342" t="inlineStr"/>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -13626,17 +11860,11 @@
         <v>3999889.40066758</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K343" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J343" t="inlineStr"/>
+      <c r="K343" t="inlineStr"/>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -13665,17 +11893,11 @@
         <v>3999889.40066758</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K344" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J344" t="inlineStr"/>
+      <c r="K344" t="inlineStr"/>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -13704,17 +11926,11 @@
         <v>3999872.59066758</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K345" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J345" t="inlineStr"/>
+      <c r="K345" t="inlineStr"/>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -13746,14 +11962,8 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K346" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J346" t="inlineStr"/>
+      <c r="K346" t="inlineStr"/>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -13785,14 +11995,8 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K347" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J347" t="inlineStr"/>
+      <c r="K347" t="inlineStr"/>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -13824,14 +12028,8 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K348" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J348" t="inlineStr"/>
+      <c r="K348" t="inlineStr"/>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -13863,14 +12061,8 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K349" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J349" t="inlineStr"/>
+      <c r="K349" t="inlineStr"/>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -13902,14 +12094,8 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K350" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J350" t="inlineStr"/>
+      <c r="K350" t="inlineStr"/>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -13941,14 +12127,8 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K351" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J351" t="inlineStr"/>
+      <c r="K351" t="inlineStr"/>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -13980,14 +12160,8 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K352" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J352" t="inlineStr"/>
+      <c r="K352" t="inlineStr"/>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -14019,14 +12193,8 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K353" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J353" t="inlineStr"/>
+      <c r="K353" t="inlineStr"/>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -14058,14 +12226,8 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K354" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J354" t="inlineStr"/>
+      <c r="K354" t="inlineStr"/>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -14097,14 +12259,8 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K355" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J355" t="inlineStr"/>
+      <c r="K355" t="inlineStr"/>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -14136,14 +12292,8 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K356" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J356" t="inlineStr"/>
+      <c r="K356" t="inlineStr"/>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -14175,14 +12325,8 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K357" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J357" t="inlineStr"/>
+      <c r="K357" t="inlineStr"/>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -14214,14 +12358,8 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K358" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J358" t="inlineStr"/>
+      <c r="K358" t="inlineStr"/>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -14253,14 +12391,8 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K359" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J359" t="inlineStr"/>
+      <c r="K359" t="inlineStr"/>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -14292,14 +12424,8 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K360" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J360" t="inlineStr"/>
+      <c r="K360" t="inlineStr"/>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -14331,14 +12457,8 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K361" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J361" t="inlineStr"/>
+      <c r="K361" t="inlineStr"/>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -14367,17 +12487,11 @@
         <v>4001411.047975368</v>
       </c>
       <c r="H362" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K362" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J362" t="inlineStr"/>
+      <c r="K362" t="inlineStr"/>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -14406,17 +12520,11 @@
         <v>4001409.915875368</v>
       </c>
       <c r="H363" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K363" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J363" t="inlineStr"/>
+      <c r="K363" t="inlineStr"/>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -14445,17 +12553,11 @@
         <v>4001350.415875368</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K364" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J364" t="inlineStr"/>
+      <c r="K364" t="inlineStr"/>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -14484,17 +12586,11 @@
         <v>4002708.781175368</v>
       </c>
       <c r="H365" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K365" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J365" t="inlineStr"/>
+      <c r="K365" t="inlineStr"/>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -14523,17 +12619,11 @@
         <v>4002696.781175368</v>
       </c>
       <c r="H366" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K366" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J366" t="inlineStr"/>
+      <c r="K366" t="inlineStr"/>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -14562,17 +12652,11 @@
         <v>4002696.781175368</v>
       </c>
       <c r="H367" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K367" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J367" t="inlineStr"/>
+      <c r="K367" t="inlineStr"/>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -14601,17 +12685,11 @@
         <v>4002603.605575368</v>
       </c>
       <c r="H368" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K368" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J368" t="inlineStr"/>
+      <c r="K368" t="inlineStr"/>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -14640,17 +12718,11 @@
         <v>4003687.005875368</v>
       </c>
       <c r="H369" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K369" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J369" t="inlineStr"/>
+      <c r="K369" t="inlineStr"/>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -14679,17 +12751,11 @@
         <v>4003715.920675368</v>
       </c>
       <c r="H370" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K370" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J370" t="inlineStr"/>
+      <c r="K370" t="inlineStr"/>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -14718,17 +12784,11 @@
         <v>4003715.420675368</v>
       </c>
       <c r="H371" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K371" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J371" t="inlineStr"/>
+      <c r="K371" t="inlineStr"/>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -14757,17 +12817,11 @@
         <v>4003868.015675368</v>
       </c>
       <c r="H372" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K372" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J372" t="inlineStr"/>
+      <c r="K372" t="inlineStr"/>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -14796,17 +12850,11 @@
         <v>4003792.464875368</v>
       </c>
       <c r="H373" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K373" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J373" t="inlineStr"/>
+      <c r="K373" t="inlineStr"/>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -14835,17 +12883,11 @@
         <v>4003087.643475369</v>
       </c>
       <c r="H374" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K374" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J374" t="inlineStr"/>
+      <c r="K374" t="inlineStr"/>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -14877,14 +12919,8 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K375" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J375" t="inlineStr"/>
+      <c r="K375" t="inlineStr"/>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -14916,14 +12952,8 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K376" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J376" t="inlineStr"/>
+      <c r="K376" t="inlineStr"/>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -14955,14 +12985,8 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K377" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J377" t="inlineStr"/>
+      <c r="K377" t="inlineStr"/>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -14994,14 +13018,8 @@
         <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K378" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J378" t="inlineStr"/>
+      <c r="K378" t="inlineStr"/>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -15033,14 +13051,8 @@
         <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K379" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J379" t="inlineStr"/>
+      <c r="K379" t="inlineStr"/>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -15072,14 +13084,8 @@
         <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K380" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J380" t="inlineStr"/>
+      <c r="K380" t="inlineStr"/>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -15111,14 +13117,8 @@
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K381" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J381" t="inlineStr"/>
+      <c r="K381" t="inlineStr"/>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -15150,14 +13150,8 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K382" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J382" t="inlineStr"/>
+      <c r="K382" t="inlineStr"/>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -15189,14 +13183,8 @@
         <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K383" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J383" t="inlineStr"/>
+      <c r="K383" t="inlineStr"/>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -15228,14 +13216,8 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K384" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J384" t="inlineStr"/>
+      <c r="K384" t="inlineStr"/>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -15267,14 +13249,8 @@
         <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K385" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J385" t="inlineStr"/>
+      <c r="K385" t="inlineStr"/>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -15306,14 +13282,8 @@
         <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K386" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J386" t="inlineStr"/>
+      <c r="K386" t="inlineStr"/>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -15345,14 +13315,8 @@
         <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K387" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J387" t="inlineStr"/>
+      <c r="K387" t="inlineStr"/>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -15384,14 +13348,8 @@
         <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K388" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J388" t="inlineStr"/>
+      <c r="K388" t="inlineStr"/>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -15423,14 +13381,8 @@
         <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K389" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J389" t="inlineStr"/>
+      <c r="K389" t="inlineStr"/>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -15462,14 +13414,8 @@
         <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K390" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J390" t="inlineStr"/>
+      <c r="K390" t="inlineStr"/>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -15501,14 +13447,8 @@
         <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K391" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J391" t="inlineStr"/>
+      <c r="K391" t="inlineStr"/>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -15540,14 +13480,8 @@
         <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K392" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J392" t="inlineStr"/>
+      <c r="K392" t="inlineStr"/>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -15579,14 +13513,8 @@
         <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K393" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J393" t="inlineStr"/>
+      <c r="K393" t="inlineStr"/>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -15618,14 +13546,8 @@
         <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K394" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J394" t="inlineStr"/>
+      <c r="K394" t="inlineStr"/>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -15657,14 +13579,8 @@
         <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K395" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J395" t="inlineStr"/>
+      <c r="K395" t="inlineStr"/>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -15696,14 +13612,8 @@
         <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K396" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J396" t="inlineStr"/>
+      <c r="K396" t="inlineStr"/>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -15735,14 +13645,8 @@
         <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K397" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J397" t="inlineStr"/>
+      <c r="K397" t="inlineStr"/>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -15774,14 +13678,8 @@
         <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K398" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J398" t="inlineStr"/>
+      <c r="K398" t="inlineStr"/>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -15810,19 +13708,13 @@
         <v>4006116.304485045</v>
       </c>
       <c r="H399" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="n">
-        <v>2939</v>
-      </c>
-      <c r="K399" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J399" t="inlineStr"/>
+      <c r="K399" t="inlineStr"/>
       <c r="L399" t="n">
-        <v>1.012352841102416</v>
+        <v>1</v>
       </c>
       <c r="M399" t="inlineStr"/>
     </row>
@@ -15849,7 +13741,7 @@
         <v>4005842.087685045</v>
       </c>
       <c r="H400" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -15882,7 +13774,7 @@
         <v>4005823.863585045</v>
       </c>
       <c r="H401" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -15915,7 +13807,7 @@
         <v>4005823.863585045</v>
       </c>
       <c r="H402" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -15948,7 +13840,7 @@
         <v>4005747.510285045</v>
       </c>
       <c r="H403" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -15981,7 +13873,7 @@
         <v>4005731.196185045</v>
       </c>
       <c r="H404" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -16014,7 +13906,7 @@
         <v>4002349.975785045</v>
       </c>
       <c r="H405" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -16047,7 +13939,7 @@
         <v>4002359.975785045</v>
       </c>
       <c r="H406" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -16080,7 +13972,7 @@
         <v>4002359.975785045</v>
       </c>
       <c r="H407" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -16113,7 +14005,7 @@
         <v>4002359.975785045</v>
       </c>
       <c r="H408" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -16146,7 +14038,7 @@
         <v>4002359.975785045</v>
       </c>
       <c r="H409" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -16179,7 +14071,7 @@
         <v>4002359.975785045</v>
       </c>
       <c r="H410" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -16212,7 +14104,7 @@
         <v>4002359.975785045</v>
       </c>
       <c r="H411" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -16245,7 +14137,7 @@
         <v>4002370.225785045</v>
       </c>
       <c r="H412" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -16278,7 +14170,7 @@
         <v>4002370.225785045</v>
       </c>
       <c r="H413" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -16311,7 +14203,7 @@
         <v>4002370.725785045</v>
       </c>
       <c r="H414" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -16905,7 +14797,7 @@
         <v>4001687.654748597</v>
       </c>
       <c r="H432" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -16938,7 +14830,7 @@
         <v>4001685.654748597</v>
       </c>
       <c r="H433" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -16971,7 +14863,7 @@
         <v>4001687.904748597</v>
       </c>
       <c r="H434" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -17004,7 +14896,7 @@
         <v>4001546.962748597</v>
       </c>
       <c r="H435" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -17037,7 +14929,7 @@
         <v>4003601.350248597</v>
       </c>
       <c r="H436" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -17070,7 +14962,7 @@
         <v>4003601.350248597</v>
       </c>
       <c r="H437" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -17103,7 +14995,7 @@
         <v>4003601.350248597</v>
       </c>
       <c r="H438" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -17136,7 +15028,7 @@
         <v>4001793.797448597</v>
       </c>
       <c r="H439" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -17169,7 +15061,7 @@
         <v>4002415.843248597</v>
       </c>
       <c r="H440" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -17202,7 +15094,7 @@
         <v>4002415.843248597</v>
       </c>
       <c r="H441" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -17235,7 +15127,7 @@
         <v>4002089.468248597</v>
       </c>
       <c r="H442" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -17268,7 +15160,7 @@
         <v>4002184.986848597</v>
       </c>
       <c r="H443" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -17499,7 +15391,7 @@
         <v>4002424.818148597</v>
       </c>
       <c r="H450" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -17532,7 +15424,7 @@
         <v>4002424.818148597</v>
       </c>
       <c r="H451" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -17565,7 +15457,7 @@
         <v>4002424.818148597</v>
       </c>
       <c r="H452" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -17598,7 +15490,7 @@
         <v>4002424.818148597</v>
       </c>
       <c r="H453" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -17631,7 +15523,7 @@
         <v>4002424.818148597</v>
       </c>
       <c r="H454" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -17664,7 +15556,7 @@
         <v>4002424.818148597</v>
       </c>
       <c r="H455" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -17697,7 +15589,7 @@
         <v>4002424.818148597</v>
       </c>
       <c r="H456" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -17730,7 +15622,7 @@
         <v>4002424.818148597</v>
       </c>
       <c r="H457" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
@@ -17763,7 +15655,7 @@
         <v>4002424.818148597</v>
       </c>
       <c r="H458" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -17796,7 +15688,7 @@
         <v>4002424.818148597</v>
       </c>
       <c r="H459" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
@@ -17829,7 +15721,7 @@
         <v>4002424.818148597</v>
       </c>
       <c r="H460" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -17862,7 +15754,7 @@
         <v>4002524.469148597</v>
       </c>
       <c r="H461" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -18390,7 +16282,7 @@
         <v>4001956.329395508</v>
       </c>
       <c r="H477" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
@@ -18423,7 +16315,7 @@
         <v>4001956.329395508</v>
       </c>
       <c r="H478" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
@@ -18456,7 +16348,7 @@
         <v>4001956.329395508</v>
       </c>
       <c r="H479" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
@@ -18489,7 +16381,7 @@
         <v>4001956.329395508</v>
       </c>
       <c r="H480" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -18522,7 +16414,7 @@
         <v>4002572.931295509</v>
       </c>
       <c r="H481" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
@@ -18555,7 +16447,7 @@
         <v>4002573.931295509</v>
       </c>
       <c r="H482" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
@@ -18588,7 +16480,7 @@
         <v>4002573.931295509</v>
       </c>
       <c r="H483" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
@@ -18621,7 +16513,7 @@
         <v>4002536.849795509</v>
       </c>
       <c r="H484" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
@@ -18654,7 +16546,7 @@
         <v>4001749.849795509</v>
       </c>
       <c r="H485" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
@@ -18687,7 +16579,7 @@
         <v>4001759.026695509</v>
       </c>
       <c r="H486" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
@@ -18720,7 +16612,7 @@
         <v>4000675.626295508</v>
       </c>
       <c r="H487" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
@@ -18753,7 +16645,7 @@
         <v>3997720.667195508</v>
       </c>
       <c r="H488" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
@@ -18786,7 +16678,7 @@
         <v>3999198.448995508</v>
       </c>
       <c r="H489" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
@@ -18819,7 +16711,7 @@
         <v>3999068.746695508</v>
       </c>
       <c r="H490" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -18852,7 +16744,7 @@
         <v>3999068.746695508</v>
       </c>
       <c r="H491" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -18885,7 +16777,7 @@
         <v>4000444.951395508</v>
       </c>
       <c r="H492" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
@@ -18984,7 +16876,7 @@
         <v>3998737.916195508</v>
       </c>
       <c r="H495" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -19017,7 +16909,7 @@
         <v>3998581.013595508</v>
       </c>
       <c r="H496" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -19050,7 +16942,7 @@
         <v>3998622.899495508</v>
       </c>
       <c r="H497" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -19083,7 +16975,7 @@
         <v>3995998.035455834</v>
       </c>
       <c r="H498" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -19116,7 +17008,7 @@
         <v>3995489.145255834</v>
       </c>
       <c r="H499" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -19149,7 +17041,7 @@
         <v>3995501.185355834</v>
       </c>
       <c r="H500" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
@@ -19182,7 +17074,7 @@
         <v>3995502.185355834</v>
       </c>
       <c r="H501" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
@@ -19215,7 +17107,7 @@
         <v>3995216.834355834</v>
       </c>
       <c r="H502" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
@@ -19248,7 +17140,7 @@
         <v>3995264.926984217</v>
       </c>
       <c r="H503" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
@@ -19281,7 +17173,7 @@
         <v>3995265.926984217</v>
       </c>
       <c r="H504" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
@@ -19314,7 +17206,7 @@
         <v>3995188.355284217</v>
       </c>
       <c r="H505" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
@@ -19347,7 +17239,7 @@
         <v>3995191.355284217</v>
       </c>
       <c r="H506" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -19380,7 +17272,7 @@
         <v>3995191.355284217</v>
       </c>
       <c r="H507" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -19413,7 +17305,7 @@
         <v>3996191.355284217</v>
       </c>
       <c r="H508" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -19446,7 +17338,7 @@
         <v>3996731.279984217</v>
       </c>
       <c r="H509" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
@@ -21063,7 +18955,7 @@
         <v>4051229.045876773</v>
       </c>
       <c r="H558" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
@@ -21129,7 +19021,7 @@
         <v>4054837.774176773</v>
       </c>
       <c r="H560" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
@@ -21162,7 +19054,7 @@
         <v>4055797.774176773</v>
       </c>
       <c r="H561" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
@@ -21195,7 +19087,7 @@
         <v>4055797.774176773</v>
       </c>
       <c r="H562" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
@@ -21228,7 +19120,7 @@
         <v>4055297.774176773</v>
       </c>
       <c r="H563" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
@@ -21261,7 +19153,7 @@
         <v>4055297.774176773</v>
       </c>
       <c r="H564" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
@@ -21294,7 +19186,7 @@
         <v>4054496.186876773</v>
       </c>
       <c r="H565" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
@@ -21327,7 +19219,7 @@
         <v>4056497.505576774</v>
       </c>
       <c r="H566" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
@@ -21371,6 +19263,6 @@
       <c r="M567" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-21 BackTest LINK.xlsx
+++ b/BackTest/2020-01-21 BackTest LINK.xlsx
@@ -1474,11 +1474,17 @@
         <v>-20314.2288277932</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>2936</v>
+      </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1511,7 +1517,11 @@
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1544,7 +1554,11 @@
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1577,7 +1591,11 @@
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1610,7 +1628,11 @@
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1643,7 +1665,11 @@
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1676,7 +1702,11 @@
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1709,7 +1739,11 @@
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1742,7 +1776,11 @@
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1775,7 +1813,11 @@
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1808,7 +1850,11 @@
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1837,15 +1883,13 @@
         <v>-20184.1288277932</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" t="n">
-        <v>2939</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L44" t="n">
@@ -2172,9 +2216,11 @@
         <v>-23831.89572779321</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>2919</v>
+      </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr">
         <is>
@@ -2209,9 +2255,11 @@
         <v>-23832.07572779321</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>2919</v>
+      </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr">
         <is>
@@ -2246,9 +2294,11 @@
         <v>-23832.07572779321</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>2916</v>
+      </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr">
         <is>
@@ -2400,9 +2450,11 @@
         <v>-25474.6518277932</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>2931</v>
+      </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
@@ -2476,9 +2528,11 @@
         <v>-25209.75778929235</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>2927</v>
+      </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr">
         <is>
@@ -2513,9 +2567,11 @@
         <v>-25155.74952000908</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I62" t="n">
+        <v>2925</v>
+      </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr">
         <is>
@@ -2550,9 +2606,11 @@
         <v>-25152.74952000908</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I63" t="n">
+        <v>2930</v>
+      </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr">
         <is>
@@ -2587,9 +2645,11 @@
         <v>-25075.55092000908</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>2935</v>
+      </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr">
         <is>
@@ -2624,9 +2684,11 @@
         <v>-24731.54662000908</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>2940</v>
+      </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr">
         <is>
@@ -2883,9 +2945,11 @@
         <v>-26788.34102000908</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I72" t="n">
+        <v>2925</v>
+      </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr">
         <is>
@@ -2920,9 +2984,11 @@
         <v>-26900.76382000908</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>2940</v>
+      </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr">
         <is>
@@ -2957,9 +3023,11 @@
         <v>-26900.76382000908</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>2938</v>
+      </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr">
         <is>
@@ -2994,9 +3062,11 @@
         <v>-26900.54422000908</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I75" t="n">
+        <v>2938</v>
+      </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr">
         <is>
@@ -3179,16 +3249,18 @@
         <v>-21449.78382000908</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L80" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
       <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
@@ -3214,11 +3286,17 @@
         <v>-21449.78382000908</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>2967</v>
+      </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3247,11 +3325,17 @@
         <v>-21449.78382000908</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>2967</v>
+      </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3284,7 +3368,11 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3317,7 +3405,11 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3350,7 +3442,11 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3383,7 +3479,11 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3416,7 +3516,11 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3449,7 +3553,11 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3482,7 +3590,11 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3515,7 +3627,11 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3544,11 +3660,17 @@
         <v>-20993.49092000908</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I91" t="n">
+        <v>2963</v>
+      </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3581,7 +3703,11 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3614,7 +3740,11 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3647,7 +3777,11 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3680,7 +3814,11 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3713,7 +3851,11 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3746,7 +3888,11 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3779,7 +3925,11 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3812,7 +3962,11 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3845,7 +3999,11 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3878,7 +4036,11 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3911,7 +4073,11 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3944,7 +4110,11 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3977,7 +4147,11 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4010,7 +4184,11 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4043,7 +4221,11 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4076,7 +4258,11 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4109,7 +4295,11 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4142,7 +4332,11 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4171,11 +4365,17 @@
         <v>-18461.38232000908</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I110" t="n">
+        <v>2943</v>
+      </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4208,7 +4408,11 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4241,7 +4445,11 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4274,7 +4482,11 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4307,7 +4519,11 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4340,7 +4556,11 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4373,7 +4593,11 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4406,7 +4630,11 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4439,7 +4667,11 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4472,7 +4704,11 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4505,7 +4741,11 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4538,7 +4778,11 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4571,7 +4815,11 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4604,7 +4852,11 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4637,7 +4889,11 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4670,7 +4926,11 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4703,7 +4963,11 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4736,7 +5000,11 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4769,7 +5037,11 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4802,7 +5074,11 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4835,7 +5111,11 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4868,7 +5148,11 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4901,7 +5185,11 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4934,7 +5222,11 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4967,7 +5259,11 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5000,7 +5296,11 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5033,7 +5333,11 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5066,7 +5370,11 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5099,7 +5407,11 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5132,7 +5444,11 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5165,7 +5481,11 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5198,7 +5518,11 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5231,7 +5555,11 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5264,7 +5592,11 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5297,7 +5629,11 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5330,7 +5666,11 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5363,7 +5703,11 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5396,7 +5740,11 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5429,7 +5777,11 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5462,7 +5814,11 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5495,7 +5851,11 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5528,7 +5888,11 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5561,7 +5925,11 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5594,7 +5962,11 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5627,7 +5999,11 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5660,7 +6036,11 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5693,7 +6073,11 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5726,7 +6110,11 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5759,7 +6147,11 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5792,7 +6184,11 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5825,7 +6221,11 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5858,7 +6258,11 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5891,7 +6295,11 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5924,7 +6332,11 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -5957,7 +6369,11 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -5990,7 +6406,11 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6023,7 +6443,11 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6056,7 +6480,11 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6089,7 +6517,11 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6122,7 +6554,11 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6155,7 +6591,11 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6188,7 +6628,11 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6221,7 +6665,11 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6254,7 +6702,11 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6287,7 +6739,11 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6320,7 +6776,11 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6353,7 +6813,11 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6386,7 +6850,11 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6419,7 +6887,11 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6452,7 +6924,11 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6485,7 +6961,11 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6518,7 +6998,11 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6551,7 +7035,11 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6584,7 +7072,11 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6617,7 +7109,11 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6650,7 +7146,11 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6683,7 +7183,11 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6716,7 +7220,11 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6749,7 +7257,11 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6782,7 +7294,11 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6815,7 +7331,11 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6848,7 +7368,11 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -6881,7 +7405,11 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -6914,7 +7442,11 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -6947,7 +7479,11 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -6980,7 +7516,11 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7013,7 +7553,11 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7046,7 +7590,11 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7079,7 +7627,11 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7112,7 +7664,11 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7145,7 +7701,11 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7178,7 +7738,11 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7211,7 +7775,11 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7244,7 +7812,11 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7277,7 +7849,11 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7310,7 +7886,11 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7343,7 +7923,11 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7376,7 +7960,11 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7409,7 +7997,11 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7442,7 +8034,11 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7475,7 +8071,11 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7508,7 +8108,11 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7541,7 +8145,11 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7574,7 +8182,11 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7607,7 +8219,11 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7640,7 +8256,11 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7673,7 +8293,11 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7706,7 +8330,11 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7739,7 +8367,11 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7772,7 +8404,11 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7805,7 +8441,11 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -7838,7 +8478,11 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -7871,7 +8515,11 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -7904,7 +8552,11 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -7937,7 +8589,11 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -7970,7 +8626,11 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8003,7 +8663,11 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8036,7 +8700,11 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8069,7 +8737,11 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8102,7 +8774,11 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8135,7 +8811,11 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8168,7 +8848,11 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8201,7 +8885,11 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8234,7 +8922,11 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8267,7 +8959,11 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8300,7 +8996,11 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8333,7 +9033,11 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8366,7 +9070,11 @@
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8399,7 +9107,11 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8432,7 +9144,11 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8465,7 +9181,11 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8498,7 +9218,11 @@
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8531,7 +9255,11 @@
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8564,7 +9292,11 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8597,7 +9329,11 @@
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8630,7 +9366,11 @@
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8663,7 +9403,11 @@
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8696,7 +9440,11 @@
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8729,7 +9477,11 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -8762,7 +9514,11 @@
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -8795,7 +9551,11 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -8828,7 +9588,11 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -8861,7 +9625,11 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -8894,7 +9662,11 @@
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -8927,7 +9699,11 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -8960,7 +9736,11 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -8993,7 +9773,11 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9026,7 +9810,11 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9059,7 +9847,11 @@
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9092,7 +9884,11 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9125,7 +9921,11 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9158,7 +9958,11 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9191,7 +9995,11 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9224,7 +10032,11 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9257,7 +10069,11 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9290,7 +10106,11 @@
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9323,7 +10143,11 @@
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9356,7 +10180,11 @@
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9389,7 +10217,11 @@
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9422,7 +10254,11 @@
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9455,7 +10291,11 @@
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9488,7 +10328,11 @@
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9521,7 +10365,11 @@
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9554,7 +10402,11 @@
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9587,7 +10439,11 @@
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9620,7 +10476,11 @@
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9653,7 +10513,11 @@
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -9686,7 +10550,11 @@
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -9719,7 +10587,11 @@
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -9752,7 +10624,11 @@
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -9785,7 +10661,11 @@
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -9818,7 +10698,11 @@
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -9851,7 +10735,11 @@
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -9884,7 +10772,11 @@
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -9917,7 +10809,11 @@
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -9950,7 +10846,11 @@
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -9983,7 +10883,11 @@
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10016,7 +10920,11 @@
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10049,7 +10957,11 @@
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10082,7 +10994,11 @@
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10115,7 +11031,11 @@
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10148,7 +11068,11 @@
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10181,7 +11105,11 @@
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10214,7 +11142,11 @@
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10247,7 +11179,11 @@
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10280,7 +11216,11 @@
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10313,7 +11253,11 @@
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10346,7 +11290,11 @@
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10379,7 +11327,11 @@
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10412,7 +11364,11 @@
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10445,7 +11401,11 @@
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10478,7 +11438,11 @@
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10511,7 +11475,11 @@
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10544,7 +11512,11 @@
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -10577,7 +11549,11 @@
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -10610,7 +11586,11 @@
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -10643,7 +11623,11 @@
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -10676,7 +11660,11 @@
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -10709,7 +11697,11 @@
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -10742,7 +11734,11 @@
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -10775,7 +11771,11 @@
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -10808,7 +11808,11 @@
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -10841,7 +11845,11 @@
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -10874,7 +11882,11 @@
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -10907,7 +11919,11 @@
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -10940,7 +11956,11 @@
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -10973,7 +11993,11 @@
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -11006,7 +12030,11 @@
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -11039,7 +12067,11 @@
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11072,7 +12104,11 @@
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11105,7 +12141,11 @@
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11138,7 +12178,11 @@
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11171,7 +12215,11 @@
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11204,7 +12252,11 @@
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11237,7 +12289,11 @@
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11270,7 +12326,11 @@
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11303,7 +12363,11 @@
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11336,7 +12400,11 @@
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11369,7 +12437,11 @@
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11402,7 +12474,11 @@
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11435,7 +12511,11 @@
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -11468,7 +12548,11 @@
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -11501,7 +12585,11 @@
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -11534,7 +12622,11 @@
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -11567,7 +12659,11 @@
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -11600,7 +12696,11 @@
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -11633,7 +12733,11 @@
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -11666,7 +12770,11 @@
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -11699,7 +12807,11 @@
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -11728,11 +12840,15 @@
         <v>3999932.96596758</v>
       </c>
       <c r="H339" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -11761,11 +12877,15 @@
         <v>3999932.96596758</v>
       </c>
       <c r="H340" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -11794,11 +12914,15 @@
         <v>3999884.55936758</v>
       </c>
       <c r="H341" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -11827,11 +12951,15 @@
         <v>4001216.32846758</v>
       </c>
       <c r="H342" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -11860,11 +12988,15 @@
         <v>3999889.40066758</v>
       </c>
       <c r="H343" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -11893,11 +13025,15 @@
         <v>3999889.40066758</v>
       </c>
       <c r="H344" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -11926,11 +13062,15 @@
         <v>3999872.59066758</v>
       </c>
       <c r="H345" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -11963,7 +13103,11 @@
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -11996,7 +13140,11 @@
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -12029,7 +13177,11 @@
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -12062,7 +13214,11 @@
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -12095,7 +13251,11 @@
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -12128,7 +13288,11 @@
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12161,7 +13325,11 @@
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12194,7 +13362,11 @@
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12227,7 +13399,11 @@
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12260,7 +13436,11 @@
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12293,7 +13473,11 @@
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12326,7 +13510,11 @@
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12359,7 +13547,11 @@
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -12392,7 +13584,11 @@
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -12425,7 +13621,11 @@
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -12458,7 +13658,11 @@
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -12487,11 +13691,15 @@
         <v>4001411.047975368</v>
       </c>
       <c r="H362" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -12520,11 +13728,15 @@
         <v>4001409.915875368</v>
       </c>
       <c r="H363" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -12553,11 +13765,15 @@
         <v>4001350.415875368</v>
       </c>
       <c r="H364" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -12586,11 +13802,15 @@
         <v>4002708.781175368</v>
       </c>
       <c r="H365" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -12619,11 +13839,15 @@
         <v>4002696.781175368</v>
       </c>
       <c r="H366" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -12652,11 +13876,15 @@
         <v>4002696.781175368</v>
       </c>
       <c r="H367" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -12685,11 +13913,15 @@
         <v>4002603.605575368</v>
       </c>
       <c r="H368" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -12718,11 +13950,15 @@
         <v>4003687.005875368</v>
       </c>
       <c r="H369" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -12751,11 +13987,15 @@
         <v>4003715.920675368</v>
       </c>
       <c r="H370" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -12784,11 +14024,15 @@
         <v>4003715.420675368</v>
       </c>
       <c r="H371" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -12817,11 +14061,15 @@
         <v>4003868.015675368</v>
       </c>
       <c r="H372" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -12850,11 +14098,15 @@
         <v>4003792.464875368</v>
       </c>
       <c r="H373" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -12883,11 +14135,15 @@
         <v>4003087.643475369</v>
       </c>
       <c r="H374" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -12920,7 +14176,11 @@
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -12953,7 +14213,11 @@
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -12986,7 +14250,11 @@
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -13019,7 +14287,11 @@
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -13052,7 +14324,11 @@
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -13085,7 +14361,11 @@
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -13118,7 +14398,11 @@
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -13151,7 +14435,11 @@
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13184,7 +14472,11 @@
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13213,14 +14505,16 @@
         <v>4006014.783175369</v>
       </c>
       <c r="H384" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
-      <c r="L384" t="n">
-        <v>1</v>
-      </c>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L384" t="inlineStr"/>
       <c r="M384" t="inlineStr"/>
     </row>
     <row r="385">
@@ -13246,7 +14540,7 @@
         <v>4006014.783175369</v>
       </c>
       <c r="H385" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -13279,7 +14573,7 @@
         <v>4006014.783175369</v>
       </c>
       <c r="H386" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -13312,7 +14606,7 @@
         <v>4006303.598475369</v>
       </c>
       <c r="H387" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -13345,7 +14639,7 @@
         <v>4006322.800675369</v>
       </c>
       <c r="H388" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -13378,7 +14672,7 @@
         <v>4006281.110075369</v>
       </c>
       <c r="H389" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -13411,7 +14705,7 @@
         <v>4006729.847637807</v>
       </c>
       <c r="H390" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -13444,7 +14738,7 @@
         <v>4006728.728383976</v>
       </c>
       <c r="H391" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -13477,7 +14771,7 @@
         <v>4006708.182283976</v>
       </c>
       <c r="H392" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -13510,7 +14804,7 @@
         <v>4005996.718483976</v>
       </c>
       <c r="H393" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -13543,7 +14837,7 @@
         <v>4005996.718483976</v>
       </c>
       <c r="H394" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -13576,7 +14870,7 @@
         <v>4005829.188083976</v>
       </c>
       <c r="H395" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -13609,7 +14903,7 @@
         <v>4005832.823183976</v>
       </c>
       <c r="H396" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -13642,7 +14936,7 @@
         <v>4006149.667985045</v>
       </c>
       <c r="H397" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -13675,7 +14969,7 @@
         <v>4006149.667985045</v>
       </c>
       <c r="H398" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -13708,7 +15002,7 @@
         <v>4006116.304485045</v>
       </c>
       <c r="H399" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -13741,7 +15035,7 @@
         <v>4005842.087685045</v>
       </c>
       <c r="H400" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -14368,7 +15662,7 @@
         <v>4002069.994385045</v>
       </c>
       <c r="H419" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -14863,7 +16157,7 @@
         <v>4001687.904748597</v>
       </c>
       <c r="H434" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -14896,7 +16190,7 @@
         <v>4001546.962748597</v>
       </c>
       <c r="H435" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -14962,7 +16256,7 @@
         <v>4003601.350248597</v>
       </c>
       <c r="H437" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -14995,7 +16289,7 @@
         <v>4003601.350248597</v>
       </c>
       <c r="H438" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -15028,7 +16322,7 @@
         <v>4001793.797448597</v>
       </c>
       <c r="H439" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -15061,7 +16355,7 @@
         <v>4002415.843248597</v>
       </c>
       <c r="H440" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -15094,7 +16388,7 @@
         <v>4002415.843248597</v>
       </c>
       <c r="H441" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -15127,7 +16421,7 @@
         <v>4002089.468248597</v>
       </c>
       <c r="H442" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -15160,7 +16454,7 @@
         <v>4002184.986848597</v>
       </c>
       <c r="H443" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -15193,7 +16487,7 @@
         <v>4002424.818148597</v>
       </c>
       <c r="H444" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -15226,7 +16520,7 @@
         <v>4002424.818148597</v>
       </c>
       <c r="H445" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -15259,7 +16553,7 @@
         <v>4002424.818148597</v>
       </c>
       <c r="H446" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -15292,7 +16586,7 @@
         <v>4002424.818148597</v>
       </c>
       <c r="H447" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -15325,7 +16619,7 @@
         <v>4002424.818148597</v>
       </c>
       <c r="H448" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -15358,7 +16652,7 @@
         <v>4002424.818148597</v>
       </c>
       <c r="H449" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -15391,7 +16685,7 @@
         <v>4002424.818148597</v>
       </c>
       <c r="H450" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -15424,7 +16718,7 @@
         <v>4002424.818148597</v>
       </c>
       <c r="H451" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -15457,7 +16751,7 @@
         <v>4002424.818148597</v>
       </c>
       <c r="H452" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -15490,7 +16784,7 @@
         <v>4002424.818148597</v>
       </c>
       <c r="H453" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -15523,7 +16817,7 @@
         <v>4002424.818148597</v>
       </c>
       <c r="H454" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -15556,7 +16850,7 @@
         <v>4002424.818148597</v>
       </c>
       <c r="H455" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -15589,7 +16883,7 @@
         <v>4002424.818148597</v>
       </c>
       <c r="H456" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -15622,7 +16916,7 @@
         <v>4002424.818148597</v>
       </c>
       <c r="H457" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
@@ -15655,7 +16949,7 @@
         <v>4002424.818148597</v>
       </c>
       <c r="H458" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -15688,7 +16982,7 @@
         <v>4002424.818148597</v>
       </c>
       <c r="H459" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
@@ -15721,7 +17015,7 @@
         <v>4002424.818148597</v>
       </c>
       <c r="H460" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -15754,7 +17048,7 @@
         <v>4002524.469148597</v>
       </c>
       <c r="H461" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -15787,7 +17081,7 @@
         <v>4002496.351948597</v>
       </c>
       <c r="H462" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -15820,7 +17114,7 @@
         <v>4002512.216148597</v>
       </c>
       <c r="H463" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -15853,7 +17147,7 @@
         <v>4001958.120048597</v>
       </c>
       <c r="H464" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -15886,7 +17180,7 @@
         <v>4001231.797748597</v>
       </c>
       <c r="H465" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -15919,7 +17213,7 @@
         <v>4001231.797748597</v>
       </c>
       <c r="H466" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -15952,7 +17246,7 @@
         <v>4001201.756948597</v>
       </c>
       <c r="H467" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -15985,7 +17279,7 @@
         <v>4001368.321695508</v>
       </c>
       <c r="H468" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
@@ -16018,7 +17312,7 @@
         <v>4001341.240495509</v>
       </c>
       <c r="H469" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -16051,7 +17345,7 @@
         <v>4001341.240495509</v>
       </c>
       <c r="H470" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -16084,7 +17378,7 @@
         <v>4001290.146195509</v>
       </c>
       <c r="H471" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -16117,7 +17411,7 @@
         <v>4001290.146195509</v>
       </c>
       <c r="H472" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -16150,7 +17444,7 @@
         <v>4001192.146195509</v>
       </c>
       <c r="H473" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
@@ -16183,7 +17477,7 @@
         <v>4002007.795695508</v>
       </c>
       <c r="H474" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -16216,7 +17510,7 @@
         <v>4002261.329395508</v>
       </c>
       <c r="H475" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -16249,7 +17543,7 @@
         <v>4002197.329395508</v>
       </c>
       <c r="H476" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -18955,7 +20249,7 @@
         <v>4051229.045876773</v>
       </c>
       <c r="H558" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
@@ -19021,7 +20315,7 @@
         <v>4054837.774176773</v>
       </c>
       <c r="H560" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
@@ -19054,7 +20348,7 @@
         <v>4055797.774176773</v>
       </c>
       <c r="H561" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
@@ -19087,7 +20381,7 @@
         <v>4055797.774176773</v>
       </c>
       <c r="H562" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
@@ -19120,7 +20414,7 @@
         <v>4055297.774176773</v>
       </c>
       <c r="H563" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
@@ -19153,7 +20447,7 @@
         <v>4055297.774176773</v>
       </c>
       <c r="H564" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
@@ -19186,7 +20480,7 @@
         <v>4054496.186876773</v>
       </c>
       <c r="H565" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
@@ -19219,7 +20513,7 @@
         <v>4056497.505576774</v>
       </c>
       <c r="H566" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
